--- a/witcher_info.xlsx
+++ b/witcher_info.xlsx
@@ -1,21 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Magisterka\Magisterka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC695FA-F7C6-4152-A2A8-6F1C736F9A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72B0C7F2-DD56-49F3-8EAF-013602F3CFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NilfgardOficer" sheetId="1" r:id="rId1"/>
-    <sheet name="Gounter O'Dim" sheetId="2" r:id="rId2"/>
-    <sheet name="Ghoul" sheetId="3" r:id="rId3"/>
+    <sheet name="D_NilfgardOficer" sheetId="1" r:id="rId1"/>
+    <sheet name="D_Gounter O'Dim" sheetId="2" r:id="rId2"/>
+    <sheet name="D_AfterHym" sheetId="9" r:id="rId3"/>
+    <sheet name="D_LambertBoat" sheetId="10" r:id="rId4"/>
+    <sheet name="D_CiriGeralt" sheetId="11" r:id="rId5"/>
+    <sheet name="D_SkeligeWarriors" sheetId="12" r:id="rId6"/>
+    <sheet name="D_YennGeraltSkellige" sheetId="19" r:id="rId7"/>
+    <sheet name="D_Guslar" sheetId="13" r:id="rId8"/>
+    <sheet name="D_Trolls" sheetId="20" r:id="rId9"/>
+    <sheet name="D_Regis" sheetId="21" r:id="rId10"/>
+    <sheet name="NO_Ghoul" sheetId="3" r:id="rId11"/>
+    <sheet name="NO_WampireInterview" sheetId="4" r:id="rId12"/>
+    <sheet name="NO_RedanianPaper" sheetId="5" r:id="rId13"/>
+    <sheet name="NO_OxenfurtBeast" sheetId="14" r:id="rId14"/>
+    <sheet name="NO_TresureLetter" sheetId="15" r:id="rId15"/>
+    <sheet name="NO_WidowerNote" sheetId="16" r:id="rId16"/>
+    <sheet name="NO_NonHuman" sheetId="22" r:id="rId17"/>
+    <sheet name="NO_ArenaCertificate" sheetId="23" r:id="rId18"/>
+    <sheet name="NO_TheaterPlay" sheetId="24" r:id="rId19"/>
+    <sheet name="NO_MapDescription" sheetId="25" r:id="rId20"/>
+    <sheet name="N_Beginning" sheetId="6" r:id="rId21"/>
+    <sheet name="N_MeetingYennefer" sheetId="7" r:id="rId22"/>
+    <sheet name="N_MiddleOfKeira" sheetId="17" r:id="rId23"/>
+    <sheet name="N_CiriAndCrones" sheetId="18" r:id="rId24"/>
+    <sheet name="N_CorinneTilly" sheetId="30" r:id="rId25"/>
+    <sheet name="N_SkelligeExplosion" sheetId="26" r:id="rId26"/>
+    <sheet name="N_FindingUma" sheetId="27" r:id="rId27"/>
+    <sheet name="N_Battle" sheetId="28" r:id="rId28"/>
+    <sheet name="N_Ge'els" sheetId="29" r:id="rId29"/>
+    <sheet name="N_Sunstone" sheetId="31" r:id="rId30"/>
+    <sheet name="OL_First" sheetId="8" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="157">
   <si>
     <t>Geralt: Geralt of Rivia. Witcher.
 Nilfgaardian Officer 01: A vatt'ghern - this explains why I did not hear your footsteps. What do you seek here?
@@ -65,18 +93,6 @@
 Nilfgaardian Officer: Then speak to Tomira, the herbalist in the village. She knows the area—and the plants. Help us, witcher, and I’ll ensure your path to Yennefer is cleared.
 Geralt: Fine. I’ll handle your griffin. But when it’s done, I expect truth, not riddles.
 Nilfgaardian Officer: You’ll get what you came for. On my honor.</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Scene</t>
-  </si>
-  <si>
-    <t>Dialogue Game</t>
-  </si>
-  <si>
-    <t>Dialogue LLM</t>
   </si>
   <si>
     <t>Participants</t>
@@ -190,12 +206,1182 @@
   <si>
     <t>Note about Ghouls and Alghouls, that is written as in game world as a scientific description</t>
   </si>
+  <si>
+    <t>You will no doubt call me a liar, a cheat and a madman. You will shake your head in pity and snort in disbelief. But I promise you, I swear by all the gods: everything which you shall read in the pages to follow is the truth, the whole truth and nothing but the truth.
+I met the vampire of which I write years ago, in an inn in Beauclair. He introduced himself to me as Regis and said he was a barber and a medic. Since he looked in every aspect like a mortal man, I might never have even suspected his true nature - had not a fire broken out shortly thereafter in the establishment in which we were residing. This Regis, if that truly was his name, stood completely untouched by the flames, whereas my own clothing quickly caught fire. The vampire carried me out of the burning inn, saving my life from certain death, then treated my numerous wounds.
+At first Regis refused to answer my query as to how he had miraculously survived the furnace-like temperatures inside the burning inn without so much as a scratch on his body or a hair singed on his head. Eventually, however, he must have sensed I was a man of the world, one who would not jump to hasty judgments based on appearance or species, and revealed his identity - along with a great number of highly interesting facts.
+According to Regis, not all vampires are alike. This vast family contains both mindless katakans, fleders and ekimmaras, who in form resemble overgrown bats far more than humans, as well as alps and bruxae, who look remarkably like comely maids. In addition to these, there are the even more powerful higher vampires, to which genus belonged my unexpected acquaintance.
+Not even a witcher can discern a higher vampire from a mortal man. Contrary to popular belief, they cannot be killed by pounding aspen stakes into their chests nor by cutting off their heads, nor, as I can vouch for based on personal experience, by fire. They do not fear running water, garlic or the symbols of any creed. It might be some consolation to learn a vampire's bite does not turn a human into one of their number, and they do not in any way need our blood in order to survive - to them, it is merely a delicacy in which they indulge from time to time, like men do with fine wine.
+Regis asked me to keep his tale to myself. But now, as I lay on my death bed, I feel that I must share this secret knowledge, even if it means breaking my word to this most noble individual...</t>
+  </si>
+  <si>
+    <t>Emiel Regis Rohellec Terzieff-Godefroy, better known simply as Regis, was a very powerful higher vampire, and more than four hundred years old when he first met Geralt of Rivia. He was the barber-surgeon of Dillingen. He was very well educated and could be considered a polymath, knowing about many different subjects.</t>
+  </si>
+  <si>
+    <t>Only a mutual thirst for blood links higher vampires to their distant and much more primitive cousins: ekimmaras, alps, katakans and the like. Higher vampires are, in fact, much more similar to humans than to those bat-like blood slurpers. They not only resemble us in appearance, but also share our intelligence and behavioral patterns. This means they do not squat in distant forest or hide in the shadows. On the contrary, they are particularly fond of cities, where they live out deceivingly normal lives. Even witchers are not capable of recognizing them at once, for their medallions remain perfectly motionless in the presence of higher vampires. Yet all these similarities should not blind us to an essential difference: unlike men, higher vampires are immortal. Those who have faced them in combat and survived can be counted on one hand.
+It is a witcher's good fortune that higher vampires are extremely rare – and not all are dangerous to humans. Though they do have a taste for blood, they do not need to drink it to survive. Some higher vampires have renounced feeding on humans altogether and do no harm to anyone, but others give in to their desires. A witcher who braves fighting a higher vampire must bear in mind that he faces a monster endowed with incredible strength, one able to manipulate men and animals, turn invisible and transform into a giant bat - and furthermore one which it is nearly impossible to kill. In other words, even an experienced monster slayer should think twice before accepting a contract on one of these creatures, even if half a kingdom and a princess' hand is in the offing.</t>
+  </si>
+  <si>
+    <t>In the name of His Majesty Radovid V, King of Redania, the bearer of the present document is entitled to the right of unfettered passage across all blockades on the Pontar River.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> King Radovid V has blocked off access to Redania across the Pontar. Everyone how want to go throuh need a special letter of safe conduct.</t>
+  </si>
+  <si>
+    <t>This bard's tale begins near White Orchard, with my dear friend Geralt of Rivia seeking his lover of yore - the sorceress Yennefer. She'd eluded him for years but now seemed just a few steps ahead.</t>
+  </si>
+  <si>
+    <t>Narration by Julian Alfred Pankratz, Viscount de Lettenhove, better known as Dandelion (Polish: Jaskier), was a poet, minstrel, bard, and close friend of the witcher Geralt of Rivia.</t>
+  </si>
+  <si>
+    <t>Made by Redanian Administration</t>
+  </si>
+  <si>
+    <t>Was write by Dying of old age man</t>
+  </si>
+  <si>
+    <t>An introduction to the story set in White Orchard</t>
+  </si>
+  <si>
+    <t>After many trials and tribulations, Geralt finally learned that Yen was in nearby Vizima.</t>
+  </si>
+  <si>
+    <t>Vesemir and Geralt make their way to White Orchard where they learn that Yennefer was last seen speaking with the Nilfgaardian Captain Peter Saar Gwynleve before she raced off. The captain agrees to tell Geralt where Yennefer went in exchange for ridding the town of a griffin that has recently been attacking villagers on the main road. Geralt examines the beast's nest and sets a trap for the griffin and with the help of Vesemir soon defeats the griffin. The Nilfgaardian captain says that Yennefer has rode on to Vizima. Just as Geralt and Vesemir are about to depart they are approached by none other than Yennefer herself. Yennefer insists that Geralt follow her back to Vizima for an audience with Emperor Emhyr var Emreis. Vesemir decides it would be best if he returned to Kaer Morhen.</t>
+  </si>
+  <si>
+    <t>Witcher get information about Yennefer location</t>
+  </si>
+  <si>
+    <t>Prompt</t>
+  </si>
+  <si>
+    <t>Text Game</t>
+  </si>
+  <si>
+    <t>Text LLM</t>
+  </si>
+  <si>
+    <t>Cerys: Udalryk…
+Udalryk: Begone, lass.
+Cerys: I'd never let your babe be hurt. You know that.
+Udalryk: Yet you almost killed 'im!
+Cerys: It was a trick. We wanted to cheat the creature that haunts you.
+Cerys: Not a hair on the tyke's head would've been harmed.
+Cerys: There's a door the other side. I'd 'ave pulled the little one from the oven right away, no flames would've touched 'im.
+Cerys: The hym would've thought Geralt killed the child. He'd 'ave abandoned you for the witcher.
+Cerys: But when he saw your son safe and sound, he'd 'ave had to go.
+Udalryk: Argh…
+Udalryk: What you did… It's hard to believe any good could've come of it.
+Udalryk: On the other hand, I've known you since you were a child… You're Crach's daughter.
+Udalryk: I know you've never harmed another mindfully…
+Udalryk: Argh, let's leave it be, leave it be.</t>
+  </si>
+  <si>
+    <r>
+      <t>Udalryk an Brokvar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t> was the jarl of Clan Brokvar from Spikeroog in Skellige Islands. dalryk was born as the eldest son of the Jarl of Spikeroog though was soon joined by a younger brother, Aki. While the two got along well enough, their father appeared to favor Aki, going as far as bestowing the family's heirloom sword Brokvar on the younger son rather than following Skelligan custom and giving it to the firstborn son, which was considered to be a serious insult to Udalryk. Enraged at this, Udalryk publicly questioned his father's decision, breaking one of Skellige's sacred laws in doing so, and was subsequently punished by being chained to a pile in the sea for three days. Afterwards, to try and make amends, he and Aki went out on a sailing trip near Ulula's Needle when a storm broke out and Aki fell overboard. Udalryk, who had his hands full with the sails, didn't hear his brother's cry for help until it was too late and Aki drowned.
+Having failed to save his brother, Udalryk was overcome with immense guilt and sometime afterwards began to hear voices in his sleep that claimed they were messengers from the gods. These voices plagued Udalryk with strange visions and commanded he harm himself as a sacrifice to the gods, like cutting himself deep enough to leave scars, though he viewed this as a gift to hear from the gods so directly.
+Eventually he became the jarl of Clan Brokvar and by 1272 had his own son, who he named Aki in honor of his deceased brother.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cerys an Craite, aka "Sparrowhawk", was the daughter of Crach an Craite, and Hjalmar's younger sister. The young woman was a courageous Skelliger like her father and had inherited all his stubbornness. She was very self-confident and always ready to prove she could fulfill any task as good as a man, which caused her and Hjalmar to have a constant, but good-natured, rivalry. However, unlike her brother, she appeared more levelheaded, choosing to investigate and think things through first before jumping to conclusions. in: Skelligers, Humans, The Witcher 3 characters
+English
+Cerys an Craite
+Sign in to edit
+ "Do you really wish to know?" — Spoilers from the books and/or adaptations to follow! 
+Cerys an Craite
+Tw3 journal cerys
+Basic Information
+Alias(es)
+Sparrowhawk
+Nationality
+Coat of arms
+Physical Information
+Hair color
+Red
+Eye color
+Brown
+Race
+Human
+Gender
+Female
+Personal Information
+Title(s)
+Queen of the Skellige Isles (optional)
+Abilities
+Swordsmanship
+Family
+Family
+Clan an Craite
+Parent(s)
+Crach an Craite (father)
+Relative(s)
+Hjalmar an Craite (brother)
+Appearance(s)
+I'm ready. 
+- Cerys, The Witcher 3: Wild Hunt
+Audio version: 
+Cerys an Craite, aka "Sparrowhawk", was the daughter of Crach an Craite, and Hjalmar's younger sister. The young woman was a courageous Skelliger like her father and had inherited all his stubbornness. She was very self-confident and always ready to prove she could fulfill any task as good as a man, which caused her and Hjalmar to have a constant, but good-natured, rivalry. However, unlike her brother, she appeared more levelheaded, choosing to investigate and think things through first before jumping to conclusions.
+In 1272, eager to prove her merit as the worth successor to the throne, Cerys sailed to Spikeroog to free Jarl Udalryk from a supposed curse.
+If Geralt of Rivia helped her: thanks to Geralt's assistance, her endeavour was successful and the hym possessing Udalryk was eventually expelled, ending his afflictions.
+Later on, she was present at the feast at Kaer Trolde, which was soon turned to a massacre by vildkaarls.
+If Geralt decides to help her investigate: Cerys adopted a methodical approach and ultimately succeeded in uncovering the culprit: Birna Bran. For her actions, she was subsequently chosen to be the next Queen of the Skellige Isles. Under her rule, Skellige prospered and became a far more peaceful place. Later, as allies, Geralt approached her to ask for assistance in the upcoming battle against the Wild Hunt at Kaer Morhen; while she did not go herself, she sent Hjalmar to help.</t>
+  </si>
+  <si>
+    <t>This quest is given after speaking with Crach an Craite during the main quest The King is Dead – Long Live the King, who mentions his daughter, Cerys an Craite, went off to complete a feat worthy of becoming Skellige's new ruler and was under the impression Jarl Udalryk was under a curse, despite Crach believing this wasn't the case. Regardless, he hopes you'll convince her to come back home.
+Head to Svorlag on Spikeroog to speak with Udalryk, who was in the middle of talking with his advisor Hjort about some strange dreams of his. Udalryk will eventually head off, leaving you to question Hjort alone. If you ask him about Cerys, he'll point to several possible villagers and the jarl's old family home, an abandoned, haunted structure overlooking the village. However, if you ask about the jarl's health, you'll be interrupted by Udalryk suddenly screaming and Hjort will leave to go see what's going on, leaving you to ask around the village about Cerys.
+If you're left to ask around, you can find a man and woman just by the signpost of Svorlag who inform you Cerys was inquiring into the jarl's childhood so they directed her to Bergthora and Eiric, who were once close with Udalryk years ago. These are the same people Hjort would have pointed you towards if you inquired about Cerys. Head to their home to find Bergthora, who tells you Cerys went looking for Eiric on the beach, so follow the marker to find the man surrounded by several drowners. After killing them off for 400 XP earned based on the Story and Swords! difficulty level, you have the option to ridicule him or use Axii (requires Delusion level 2 for a minimum of 35XP earned based on the Story and Swords! difficulty level). Whichever you choose, he'll reveal that Cerys went to the jarl's old family home.
+Enter the home and follow the footsteps to find a passed out Cerys and, after a short cutscene, the two will converse, with Cerys refusing to return home until she helps the ailing Udalryk. She then reveals the reason she went into the house was to find Udalryk's family sword Brokvar, which she believes will lift the curse on the jarl as, many years ago, the sword was given to Udalryk's younger brother, Aki, instead of following custom of going to the firstborn. Enraged, Udalryk then broke a sacred Skellige law by openly questioning his father's decision and was thus punished for several days. Afterwards, Udalryk took Aki out fishing to mend things between them but a storm hit and Aki fell overboard while Udalryk had his hands full with the sails and thus didn't notice until it was too late. However, others in the area believe Udalryk killed his brother on purpose.
+Regardless, Cerys believes it's Aki's ghost that's troubling the jarl and if she could return the family sword to Aki then Udalryk would no longer be troubled. Despite some holes in this theory (like why it was the house being haunted and not the sea, or why Udalryk thinks it's the gods commanding self-harm and not Aki) go along with the plan and go back into the haunted house. In the back of the oven you'll find the cellar key and, on entering the cellar, find the sword on the only table here (400 XP earned based on the Story and Swords! difficulty level). Note to pay close attention to the walls/shadows when you get the sword.
+While exploring the house, breaking the wooden planks in the room behind the first door of the hallway opens a pathway to the Place of Power west of the house. This room is locked after the quest completes, so you may want to go take it now, although it's not that hard to climb your way there afterwards where the house's wall and rocks meet.
+Head back to Cerys and the two will go talk to Udalryk to explain their theory, who will then point to the location where Aki drowned, just past Ulula's Needle.
+Aki's grave
+Head out to the location and, after dealing with some sirens, dive down to find Aki's remains and place Brokvar with the skeleton.
+When finished in the area, return back to Udalryk to let him know. However, as you return (550 XP earned based on the Story and Swords! difficulty level) the jarl screams once more and it's revealed he poked one of his own eyes out as commanded by the gods' voices in his head, this time under the guilt of not sailing out himself to beg for Aki's forgiveness. As he talks about the voices some more, Geralt figures it out and eventually pulls Cerys aside to reveal it: the jarl is indeed haunted but by a very rare and dangerous creature known as a Hym, a shadowy being which latches onto a person's guilt and feeds off of it by making their host harm themselves.
+Geralt will then reveal two ways to deal with it: the witcher's way or the less common method of tricking the hym. The former consists of fighting the hym in its lair, but would require the host to also be there, who may not last long enough for the hym to be killed. The latter consists of tricking the hym to latch onto a new host who believes they've committed a horrible deed, but then revealing no such deed was actually committed, thus forcing the hym to leave. However, successfully tricking the hym would require the intended recipient to not know they were being tricked. Your dialog choices here do not matter. After explaining the two choices to Cerys, she will immediately decide on the latter, though agrees to use the witcher's way as a backup. She heads back to the haunted house to look around some more before exclaiming she's figured out an idea, then asks that you trust her. It is at this point where you actually choose which method to use. Trusting Cerys will allow you to trick the hym. If not, you will use the witcher's method and fight the hym with Udalryk present.
+If you decide to trust her, she'll then run off and you'll have some time to prepare if you wish before starting the fire for the oven. A small cutscene starts where, several hours later, Cerys rushes in with the jarl's baby and immediately hands him to you as guards and an enraged Udalryk rush in after her and she orders you to throw the baby in the now hot oven. You'll have a timed reaction here to do what she says or hand the baby to the jarl.
+If you do as Cerys asks, Geralt will seal the baby in the oven. You must then fight off the guards (750 XP earned based on the Story and Swords! difficulty level) as Udalryk tries in vain to save his baby. Once all the guards are knocked out, the hym latches onto Geralt's guilty conscience before Cerys has Hjort appear with the baby, safe and sound. Cerys then reveals the trick: she had Hjort wait on the other side of the oven to safely recover the baby but Geralt, not knowing this, was filled with despair at what he did. Now that he realizes he didn't do anything wrong, the hym has no guilty conscience to cling to and is summarily banished, finally freeing the jarl from his torment.
+If, however, you handed the baby over to the jarl, Geralt will remark he wishes to do it the witcher's way but Udalryk will nevertheless punch you while Cerys reveals the, now foiled, plan she had intended. The quest will then follow the path like if you'd chosen to fight the hym.
+If you chose the witcher's way (either by not trusting Cerys or handing the baby over to the jarl), go talk to Udalryk to tell him about what's been going on with the hym and that you need him to visit his old family home to get rid of it. Hjort will back you up and give you the torches needed for the fight or, if you handed the baby over, send you to the shed to get them. When ready, head out and place the 4 torches and head just outside to talk to Udalryk to let him know it's ready. You can then advise him or not on what's going to happen before heading back in to light the torches.
+During the ensuing fight, you'll need to also use Axii from time to time on Udalryk to calm him down, and eventually the hym will retreat to the cellar. Head down to finish the job and once dead (750 XP earned based on the Story and Swords! difficulty level) go talk with Udalryk to let him know it's finally over.
+Whichever method you chose, Udalryk is finally free from the hym's torment. Cerys then states she'll remain for a little while to make sure of the jarl's recovery before finishing the quest.</t>
+  </si>
+  <si>
+    <t>Dialogue between Cerys and Udalryk, after Cerys plan. She try to convice him that she would never harm his child and explains plan.</t>
+  </si>
+  <si>
+    <t>Write a scene (only dialogues) it's description:</t>
+  </si>
+  <si>
+    <t>Udalryk:
+Begone, Cerys. You’ve done enough.
+Cerys:
+Please, Udalryk, just listen. I never meant to hurt your son. You know that.
+Udalryk:
+Never meant? You almost killed him! What were you thinking?
+Cerys:
+It was a trick, a necessary one. The hym fed on your guilt, and it would never leave on its own. We had to make it believe Geralt had killed the child.
+Udalryk:
+And if you were wrong? If the creature didn’t leave? My boy would be dead!
+Cerys:
+I wouldn’t have let it come to that. There was a door behind the oven, on the other side. I would have pulled the babe out the moment the hym took the bait. Not a hair on his head would’ve been singed.
+Udalryk:
+But... you didn’t know. You couldn’t know for sure.
+Cerys:
+I took a risk because there was no other way. If the hym didn’t believe the child was dead, it would never leave you. I couldn’t just stand by and let that thing destroy you, Udalryk. You’ve suffered enough.
+Udalryk:
+(sighs)
+And you’re sure? The creature... it’s really gone?
+Cerys:
+It’s gone. Geralt made sure of it. You’re free now. Free from the guilt, the nightmares.
+Udalryk:
+(pauses, looking down at his son)
+I... I’ve known you since you were a child. Crach’s daughter. You’ve always had a fierce heart. I know you’d never harm anyone mindfully... but this...
+Cerys:
+I did what had to be done. I’d never forgive myself if anything had happened to your boy. But I had to try. For you.
+Udalryk:
+(softly)
+I want to believe you. It’s just... hard to see the good in it after all that’s happened.
+Cerys:
+I understand. But you’re free now. Your son’s safe. That’s all that matters.
+Udalryk:
+(quietly)
+Aye. Maybe you’re right. Let’s... leave it be.</t>
+  </si>
+  <si>
+    <t>Geralt: Been thinking… We gonna swim across the pond?
+Lambert: No, I got a boat moored there. You know, for fishing.
+Geralt: Wow… Never took you for the fishing type.
+Lambert: I use bombs. Drop 'em in, then scoop up whatever floats to the surface.
+Geralt: Hm. That makes sense.
+Lambert: Uh-oh. Looks like someone beat us to it.
+Lambert: Dammit… Gonna chain that boat down next time.
+Geralt: Stop talking and listen.
+Geralt: Make this boat yourself?
+Lambert: Yeah. Something you don't like about it?
+Geralt: Besides the water up to our ankles? Nothing.
+Lambert: Quit whining… It'll make it across the lake.
+Geralt: Provided we don't smash into something first. Barely see the tip of my nose.
+Geralt: Fog's thick as curdled milk…
+Lambert: Never took you for a poet.
+Geralt: Oh, but I am one. Wanna hear a limerick?
+Lambert: Sure.
+Geralt: Lambert, Lambert - what a prick.
+Lambert: Not bad.</t>
+  </si>
+  <si>
+    <t>Lambert was a witcher from the School of the Wolf, active in the 13th century. He was one of the last witchers to be trained within the walls of Kaer Morhen.[1]
+Trained by Vesemir, Lambert was known for his biting tongue and was often rude in conversation, particularly towards Triss Merigold, whom he addressed only by her last name—a habit that greatly irritated the sorceress. He did not have much interest in politics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to Lambert he will tell you about heading out to fill the Phylactery with energy using a Circle of Elements. You may go with him immediately or tell him you still have something to do. Now follow Lambert. On the way, you will come across some Harpies. You can technically avoid them and run towards the lake, but Lambert has some rare compliments for Geralt during the fight, especially if you use the crossbow.
+After the harpies are dealt with, keep following Lambert to the hut near the lake. Lambert's boat will be gone and you will have to search for it. You'll find it northwest from your location, but you'll first have to fight some drowners followed by a bilge hag. After disposing of them hop on the boat and sit on the other end. After reaching your destination, you will hear a boy screaming and you can choose to investigate, in which case you will be forced to kill some foglets, or do as Lambert suggests and ignore it. It is entirely optional.
+While traversing the cave you will find walls that can be broken with Aard, however that would wake Old Speartip, so instead you can climb nearby ledges to avoid that. If you reach Old Speartip without waking him up Lambert will suggest making sure he "never wakes up." You don't have to fight him, if you didn't wake him up already, but if you try to sneak up on him, he will wake up when you get too close and Lambert will be overjoyed for once. If you intend to fight then get your Ogroid oil ready and anything else you need. Causing burning with Igni is also very effective. Once he is dead Lambert will spit on his remains and you can go, but note that there are a few treasure chests around, including in a neighbouring cave chamber.
+After leaving the cave, Lambert will tell Geralt about Trolls. You will have two ways to respond: if you pick the first option, Lambert will mention what Vesemir told him about Geralt saving a girl from Nilfgaardian soldiers. If you choose the second option, Geralt will mention the events leading to his "death." Regardless, nearby you will find a Place of Power, so feel free to use it. Move forward and you will see a troll running away. Once you get close enough, a conversation will start, and Lambert will suggest Geralt does the honors. Unfortunately, even if you try to play nice, Lambert's big mouth will ruin it, and the trolls will start throwing rocks, so you have to run into the nearby cave. Inside you will find a wall you can destroy with Aard. Once you pass the small cave, you will be conversing with the trolls again. If you try to resolve the situation in a diplomatic way, the trolls will agree to let you pass if you leave your swords there. If you agree Lambert won't be happy, but otherwise you will have to fight the trolls.
+Important: If you decide to attack the trolls, Geralt will draw his steel sword, so make sure to manually draw silver.
+</t>
+  </si>
+  <si>
+    <t>Gerlat and Lambert talk about going across the lake. Lambert have boat but it is not in great state. Dialogues continue on boat.</t>
+  </si>
+  <si>
+    <t>Geralt:
+That... thing’s your boat?
+Lambert:
+It floats. Mostly.
+Geralt:
+Barely. You sure it won’t sink halfway across?
+Lambert:
+What, don’t trust my sailing skills?
+Geralt:
+Trust your skills, not your taste in boats.
+Lambert:
+(grins)
+Could’ve walked around the lake if you wanted to. But no, gotta complain.
+Geralt:
+Thought you said it’d be faster.
+Lambert:
+It will be. As long as the lake doesn’t swallow us first.
+Geralt:
+Comforting.
+Lambert:
+(grunting)
+Come on, you piece of crap...
+Geralt:
+Maybe if you patched the holes, it’d actually move.
+Lambert:
+Nah. Keeps me awake. That, and bailing water.
+Geralt:
+Just say you’re too lazy to fix it.
+Lambert:
+Hey, it’s rustic. Got character. You like that, don’t you?
+Geralt:
+Not when it smells like fish and mold.
+Lambert:
+(snorts)
+Like you smell any better after fighting drowners.
+Geralt:
+Touché.
+Geralt:
+You ever think about getting a real boat? One that doesn’t look like it’s held together with spit and prayers?
+Lambert:
+And where’s the fun in that? Adventure, Geralt. Makes you appreciate solid ground.
+Geralt:
+And ale. Warm fire. Bed that doesn’t sway.
+Lambert:
+(raises an eyebrow)
+Starting to sound like Vesemir.
+Geralt:
+That bad?
+Lambert:
+Worse. Next you’ll be lecturing me on proper boat maintenance.
+Geralt:
+If we make it across, maybe.
+Lambert:
+What the—?
+Geralt:
+Probably just a log.
+Lambert:
+Or something that’s about to eat us.
+Geralt:
+(yawns)
+Wake me when it tries.
+Lambert:
+(laughs)
+Fine. Just don’t blame me if it swallows your boots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cirilla: I barely escaped the Crones. And then there was the baron.
+Cirilla: You know he took me hunting? I killed a wild boar with my sword.
+Geralt: I heard.
+Cirilla: A coincidence, really. I had no desire to hunt that day, but it felt wrong to refuse.
+Cirilla: I'd taken nothing remotely resembling a hunting weapon. I simply hadn't intended to hunt.
+Cirilla: I was wandering through the forest, breathing deep the air, and then I heard a strange sound, unsettling.
+Geralt: Boar attacked you?
+Cirilla: Mhm. Big as a bison and lumbering straight at me. And all I had was my sword. Had to manage.
+Geralt: Did just fine judging by how the baron's men remember it.
+Cirilla: Simple soldiers, the whole lot, but we got along splendidly. A shame I had to leave, flee, but I didn't want to bring the Wild Hunt down on them.
+</t>
+  </si>
+  <si>
+    <t>Ciri and Geralt talk about her meet with baron, haunting on boar and why she left.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geralt:
+You gonna tell me why you left the baron’s place without a word?
+Ciri:
+(sighs)
+Figured you’d ask sooner or later.
+Geralt:
+Figured you’d dodge the question.
+Ciri:
+(grins)
+Guess we both figured right.
+Geralt:
+So?
+Ciri:
+(hesitates)
+The baron... he was decent, for the most part. Took me in, gave me food. Even tried to teach me how to use a crossbow.
+Geralt:
+A crossbow? You?
+Ciri:
+(chuckles)
+Yeah. Didn’t last long. Prefer a sword.
+Geralt:
+Smart girl.
+Ciri:
+We went hunting once. Boar. He wanted to impress me, I think. Show he wasn’t just some drunk bastard.
+Geralt:
+And?
+Ciri:
+It... almost worked. He was brave, I’ll give him that. Charged the boar like it was a wyvern. Almost got gored for it, too.
+Geralt:
+Sounds like him.
+Ciri:
+But after the hunt... he started talking. About his family. His wife, his daughter. How he’d messed up. I could see it—how guilt just... hung on him. Made me think of you.
+Geralt:
+Me?
+Ciri:
+How you always take the blame when things go wrong. Even when it’s not your fault.
+Geralt:
+(scoffs)
+Witcher habit. Comes with the job.
+Ciri:
+But it wasn’t like that with the baron. He did terrible things. Hurt people he claimed to love. And then... then he looked at me like I was some miracle. Like I could fix it all just by being there.
+Geralt:
+People see what they want. Sometimes more than what’s real.
+Ciri:
+Exactly. I couldn’t stand it. Couldn’t pretend everything was alright just because he wanted it to be. So I left.
+Geralt:
+Without saying goodbye?
+Ciri:
+Wasn’t sure I could. He’d start talking again—promising to change, to be better. And I... didn’t want to believe him.
+Geralt:
+Sometimes leaving’s the right choice. Doesn’t make it easy, though.
+Ciri:
+No. And... part of me wanted to stay. Thought maybe he could change. But then I remembered what you always say.
+Geralt:
+People don’t change just because they promise to.
+Ciri:
+(nods)
+Yeah. So I didn’t look back. Kept telling myself it was for the best.
+Geralt:
+You did what you had to. Proud of you.
+Ciri:
+(smiles faintly)
+Thanks.
+Geralt:
+Next time, leave a note. Or a sign. Makes finding you a bit easier.
+Ciri:
+(laughs)
+Can’t make it too easy for you, old man.
+</t>
+  </si>
+  <si>
+    <t>Cirilla Fiona Elen Riannon (better known as Ciri), was born in 1252 or 1253,[4] and most likely during the Belleteyn holiday. She was the sole princess of Cintra, the daughter of Pavetta and Emhyr var Emreis (who was using the alias "Duny" at the time) as well as Queen Calanthe's granddaughter.
+After Geralt of Rivia helped lift Duny's curse, Duny asked what reward the witcher would like and Geralt invoked the Law of Surprise, as it turned out Pavetta was pregnant with Ciri, unbeknownst to Duny.</t>
+  </si>
+  <si>
+    <t>While the thick of it doesn't start until you travel to the Isle of Mists, this quest actually begins immediately after Uma's curse is lifted.
+Before sailing to the island, make sure to gather as many allies as possible through those, but now is also the time to complete any remaining secondary quests below your current level (see Cutoff Point section). Recruiting all possible allies (except Letho) will award 50XP earned based on the Story and Swords! difficulty level as part of this quest, but later an extra 1,000XP earned based on the Story and Swords! difficulty level is given at the start of The Battle of Kaer Morhen as well (because of all the cutscenes, this can be mistaken as part of this quest, but it isn't). In addition, travelling to the island will lock you into an uninterruptible sequence of main quests that will award a total of 10,000XP earned based on the Story and Swords! difficulty level. Thus, you may want to complete a few more quests above level 22 as well, as you may only get 5%XP earned based on the Story and Swords! difficulty level from them afterwards.
+Packing slightly higher level equipment and a few weapon, armor repair kits (whether on you or in the stash) is also a good idea, as gear maintenance will become limited for a while.
+When certain that you are ready to go, travel to Skellige and take one of the three marked boats on your minimap (others won't work). Once you do you can fast travel with your boat to Undvik to make the trip shorter (there are a number of smuggler caches and other treasure locations en route if you take the long way, but this increases the chances of the boat being destroyed and at this point you might not want to be weighed down with discovered weapons).
+When near your destination, the game will ask if you wish to save it as this is a vital moment in the story. Do so if you wish, and right after it will ask you if you are certain you wish to go (with the recommendation of being no lower than Level 22). After you agree, Geralt will release the Magic firefly and you are moved to the Isle of Mists.
+The firefly's movement can be a bit erratic and take you very close to rocks, so just make sure you don't crash your boat, but keep following it. Eventually you will encounter a couple of Ekhidnae, so use the Hornwall horn or your crossbow to get rid of them (you can do so while still moving the boat), though you could ignore them and just take some damage to the boat. Shortly after, you will reach the shore and now you have to follow the firefly on foot. Along the way you may encounter some tangalores (strong foglets), so deal with them however you like. Soon you will reach a hut and the firefly will stop there. Knock on the door.
+Inside the hut are a few scared dwarves, who won't let Geralt in before he finds their friends Ivo, Gaspard and Ferenc. Off you go to search for them, but feel free to explore the island as well - you're only here for the duration of this quest and there are some treasures sprinkled around, mostly around the landing and northeastern shores, though a lot of them only contain runestones.
+Ferenc you can find on the southwestern peninsula, already dead. A Fiend will have its lair there, so you have to avenge him before examining his body to complete the objective. It's possible to avoid the monster, either if you're really quick in examining the body or if you lure the fiend away, but that isn't easy to do and requires very precise timings.
+Ivo is sitting high on a rock arch north of the hut, with a couple of Bilge hags below him. There are also harpies on the pathway between him and the hut, though they can be avoided if you went to explore and approach from the north. He will yell out to you once you're close enough and a short cutscene will start, with him falling to his death while talking to Geralt.
+Gaspard is the only one you save. He's at the lighthouse northwest from Ivo. Climb the ladders to the top to find him sleeping there. Wake him up and converse a bit, and you can choose to explore some more before coming back for him if you want. When you agree to escort him to the hut, you will have to kill a few more tangalores on the way, as well as wake him up from his narcolepsy attacks a couple of times. If you haven't found the other two dwarves yet, he'll wait by the hut once you reach it.
+Note: If you wish to explore the island, then it's best to do it either before escorting Gaspard, or to leave one to find after him. You won't get another chance when you're in front of the hut and all three are found.
+After you're all done and in front of the door, the dwarves will come out. However, they tell Geralt that Ciri is laying cold inside and the spirit has left her. A cutscene starts as they head for the boat and Geralt goes in to find her lifeless body. Devastated, he hugs her one last time, but as he does this, the firefly comes in and into Ciri, waking her and she embraces him back. You can then have a long conversation with her, recapping most of her story so far plus some tales of her travels between worlds. Feel free to talk about everything, despite being pushed for time by the Wild Hunt, everything is scripted.
+When done, the two head to join the dwarves at the beach, only to see them sailing away in your boat. The Wild Hunt then appears and Geralt urges Ciri to teleport them home. Another long cutscene follows with Ciri and Geralt appearing at Kaer Morhen. First Vesemir, then Yennefer and finally Triss come to greet you and after all dialogues are over the quest ends. (4,000XP earned based on the Story and Swords! difficulty level)</t>
+  </si>
+  <si>
+    <t>Skellige Warrior 02: Ah sooner expect the white whale than the Black Ones' ships.
+Skellige Warrior 03: Folk say the emperor commands a fleet twice the size of ours.
+Skellige Warrior 01: And if they said he had a tail, would you believe that?
+Skellige Warrior 03: Not concerned with what grows out his arse. I only care whether in a year's time we'll all be sittin' in a fortress eatin' rats.
+Skellige Warrior 03: Those fucks on Faroe'll faint soon as they see the imperial sun.
+Skellige Warrior 04: Heheh. Be kickin' themselves when they wake on seein' us with most of the booty.
+Skellige Warrior 05: Be the first raid where the Black Ones deliver the goods to our doorstep.
+Skellige Warrior 05: It's like a sheep grindin' 'gainst the shears for ye.
+Skellige Warrior 04: Hm, I could use a fine Viroledan for me Madds. My blade's too heavy for the lad.</t>
+  </si>
+  <si>
+    <t>The inhabitants of these cold and windy isles are called simply the Islanders, by other Northerners on the Continent in particular. They are renowned as hard, tough, and decent men, while at the same time frightening when attacking their foes.[10] They are a nation with deeply rooted seafaring tradition and, although their harbors cannot compare to those in Cidaris in terms of the number of completed units a year, the Islander's drakkars are feared throughout the waters of the north and south because of the rage and knowledge these people possess.[11] The Islanders themselves proudly state that "they have the sea in their blood".[12]
+The people, however, are not only backward corsairs and plunderers as most Continentals powers see them. Quite a number of them are fishers, jewelers, merchants, alchemists, or other common professions and at least two examples of a classic mage are recorded: Marquard[11] and Astrid Lyttneyd Ásgeirrfinnbjornsdottir.[12] In contrast to the North, the Islanders are predominantly free and posses rights nearly equal to those of the jarls and kings who lead them as the gap between higher and lower classes is milder.[13] While being able to speak without a problem in the Common Speech, they have their own language, the Skellige jargon, based on the Hen Llinge.[4]
+Many of the Skalds that hail from the isles utilize bagpipes. The inhabitants domesticated bears and utilize them in warfare. On the Skellige Isles, women and men stand on legally equal footing, and both train in arts of war and seafaring.[3] In practice, however, certain discriminatory beliefs still persist; it is much harder for a woman to reach a ruling position.</t>
+  </si>
+  <si>
+    <t>Go to Yennefer's room in Kaer Trolde Harbor, pick up the clothes from a chest and put them on (150XP earned based on the Story and Swords! difficulty level). Now go meet Yennefer who is speaking with Birna; after a short conversation Birna leaves and Yennefer will now praise Geralt's appearance or berate him if he is not wearing proper clothes.
+Note: unfortunately Yennefer may berate Geralt even if he is wearing the clothes you find in the chest, this happens if they are removed and then put back on, or if he is wearing gloves. However, if Geralt is wearing other clothes, you can wear the formal courtier's clothes, which he gets during the Imperial Audience, and then he will always be praised even if the optional objective is not completed.
+Walk with Yennefer to Kaer Trolde, if you decide to do some "exploring" along the way Yennefer will berate Geralt, then say she'll be waiting at the entrance (note that this fails an objective). Once you reach the party, you will be sharing a table with Cerys an Craite and other the Jarl's sons. She will propose a foot race, you can agree or refuse, if you agree you will race her to the top of the mountain, first to pull out Hjalmar's axe out of the tree stump wins (150XP earned based on the Story and Swords! difficulty level).
+Now back at the wake you can have a toast or not, regardless Yennefer will pull Geralt away from the table to speak in private, along the way they will meet two quarreling Jarls. After a short conversation, Madman Lugos will insult Yennefer and Geralt can beat him up for it. Warning: Lugos is level 30, so be sure you know what you are doing before you decide to challenge him as this can be a tough fight but still doable (150 XP earned based on the Story and Swords! difficulty level).
+You may speak with other named guests, gaining character entries and information about Skellige and its people. The guests will invite you to toast to King Bran; if you do Yennefer will warn you she needs you sober but there is no effect other than dialogue changes. After the initial interactions you may speak with some of these guests again for further information. Geralt and Yennefer also overhear a pair of widows speaking. After interacting with them Yennefer mentions Lytta Neyd (Coral).
+After the whole ordeal, keep following Yennefer and she will tell you her plan - break into Ermion's laboratory to steal the Mask of Uroboros, agree or not it's irrelevant as Yennefer never listens to Geralt. Keep going and eventually you will reach a door, Yennefer will propose going through a window as the door is guarded by Ermion's ravens.
+Through the window, you will reach a trophy room with life-like stuffed animals and use your witcher senses to search the place. When you interact with the door Geralt will cut himself causing him to hallucinate, and the animals will come to life and attack so you have to kill all them all. When they're all killed, Yennefer will bring Geralt back to his senses and laugh at him. Note: while the animals are level 99 and have a skull item, they deal very low damage and die quickly. However, if they "kill" Geralt, the death will be very much real and result in a game over, so there is no way to avoid this, like by choosing not to fight.
+The door to the laboratory is now open, enter and search it with your witcher senses where you will find a statue holding it's hand out. There are 3 items you can find in the room which you can try to put into the hand: a skull, giant pinecone, and cup of mead. The cup is the correct one, however there is no punishment for picking the wrong item, so you can try all 3 if you like. Once you pick the right item, a secret door will open, so your path forward is set. The mask is at the end of the path, but it's guarded by an earth elemental, which must be defeated. Note: Yennefer is capable of taking care of it on her own with her lightning strikes, so you can just stand idle and watch, but this will take significantly longer.
+After the elemental is dead, poisonous gas will fill the room and your only means of escape is teleporting out of there. Yennefer will ask you to think about something real quick. If you choose the first option, Geralt and Yennefer make a crash landing back at the wake, however no one seems to mind. If you choose the second option they end up in Yennefer's room where she has ripped her dress and goes to repair it before returning to the wake. If you choose the "watch" option, Geralt and Yennefer have sex on the stuffed unicorn in her room.
+After the celebration, you will be talking to Crach an Craite, who will agree to help you with Ermion and ask for help concerning his children. After agreeing to help the quest concludes (600 XP earned based on the Story and Swords! difficulty level) and you also get the Possession and The Lord of Undvik quests.
+While the quest has ended at this point, the feast is still going on until you leave the area. If not spoken to previously, you talk to all the jarls around (Crach, Lugos, Donar and Holger Blackhand) while still there, you get an extra 100 XP earned based on the Story and Swords! difficulty level.</t>
+  </si>
+  <si>
+    <t>Warriors of Skellige talks on a feast but thei situation with Nilfgard. That is when Yennefer and Geralt are there.</t>
+  </si>
+  <si>
+    <t>Guslar: Ask a service of the witcher, the pellar must. A witcherly service, that's to say…
+Geralt: What do you need, tell me.
+Guslar: A man who fears no evil, the pellar needs…
+Guslar: Forefathers' Eve is nigh, we've rites to conduct. Wandering souls to emerge, damned souls, too. We've the circle to protect from these wretches.
+Geralt: Seems like you could use a witcher - so, yeah, I'll help.
+Guslar: You'd not refuse, the pellar knew. The time's come to gather the folk.
+Guslar: Across the lake, we must journey - to Fyke Isle. There, in the circle of stones, we shall meet.
+Geralt: The sooner we resolve this, the better. Best do it tonight, at midnight.</t>
+  </si>
+  <si>
+    <t>Skellige Warrior 1: "To the waves that guard our shores! And may the Nilfgaardian dogs drown before they land!"
+Skellige Warrior 2: "Aye, but have you heard? They're claiming more lands down south. Like a bloody plague, spreading their black banners."
+Skellige Warrior 3: "Let them come. We'll break their bones on the cliffs and feed their corpses to the gulls."
+Skellige Warrior 4: "Easy to boast when they’re not here. But what if they do come? The mainland's trembling, says Hjalmar. Even Kaedwen’s bending the knee."
+Skellige Warrior 1: "Let the mainlanders cower. We’re Skelligers. No Nilfgaardian iron will tame our waves or our steel."
+Skellige Warrior 2: "True enough. But I heard tales from a trader. Says the Black Ones have ships now, bigger than ours, faster even."
+Skellige Warrior 3: "Ships or not, they can’t fight the winds. Or the storms we’ll call down on them."
+Skellige Warrior 4: "But what of our alliances? If the jarls don’t unite, we’ll be as scattered as broken mastwood."
+Skellige Warrior 1: "Then we fight as we’ve always done. For honor, for Skellige. Let the mainlanders bow, but never us."
+Skellige Warrior 2: "If only the gods would sink their fleet before it reaches our shores..."</t>
+  </si>
+  <si>
+    <t>The Pellar was a rural holy man who lived near Blackbough. He sells a variety of crafting diagrams, runestones, and glyphs as well as alchemical ingredients and formulae at significantly lower prices. The Pellar was raised by an abusive father, who beat him and his mother, which led to the Pellar killing him. He spent his time helping people around the area, healing and offerering sage advice.</t>
+  </si>
+  <si>
+    <t>After completing A Towerful of Mice, the pellar will contact you at one of two possible locations, depending on whether the botchling part of Family Matters has already been completed or not. If it was, he will contact you at Crow's Perch near Fergus Graem's forge, otherwise the pellar will be outside Keira's hut. In any case, the pellar will ask you to help protect him and a group of villagers during the Forefathers' Eve ritual on Fyke Isle.
+You must meet him at the stone circle on the isle at midnight, however this really means just at night, so as early as 10pm will work. You'll know you can start when the pellar is chanting as you approach him. Talk to him and you can start. Once you do, you'll need to fight off all the monsters that will attack during the ritual.
+The Ritual
+Once the ritual begins, it'll start to rain and the pellar will lead a chant. Once he says "Let's begin Forefathers' Eve" a water hag with several drowners and a couple drowned dead will appear and attack you. Note that Geralt's vitality is fully restored once the water hag and drowners are defeated.
+Once you defeat them, the pellar will summon a ghost, who turns out to be his father, Ambros. However he is interrupted by three witch hunters who believe that the ritual is a rite of necromancy. You can either chose to keep defending the pellar and peasants or you can leave (which will end the quest). Whichever choice you make, you'll get 200 XP earned based on the Story and Swords! difficulty level, either after declining to fight them or after the second part of the ritual. Note that choosing to not help the pellar here will make him unavailable as a merchant in the future.
+If you choose to defend the pellar, kill the witch hunters, which will unfortunately taint the ritual grounds with blood, thus unintentionally calling the ghosts of men who seek to kill. In this case, it means wraiths will appear and the pellar helps you fight them. Note: the amount of witch hunters and wraiths appearing can be up to 4 each, but depends on difficulty level.
+Burn the body
+After the confrontation, Geralt will inform the pellar he needs to permanently destroy his father's body to prevent his wraith from returning and the pellar will say it lies in the swamps. Thankfully your marker is a bit more precise and will show a location west of The Orphans of Crookback Bog. Make your way out here and use your Witcher Senses to find it. You'll most likely run into some rotfiends, so take care of them, then head towards the very center of the search area, and you should find the remains. Once found, examine it then ignite the corpse with Igni to destroy it and its ties to the world.
+Return to the pellar's hut and tell him that you took care of the body. Doing so will finish the quest, earning you 50XP earned based on the Story and Swords! difficulty level + 50 , and unlocks a 10% discount with all merchants (regardless of type) in Velen and White Orchard. However, be aware that this also reduces the selling price of items.</t>
+  </si>
+  <si>
+    <t>The Pellar hires witcher for guarding ritual.</t>
+  </si>
+  <si>
+    <t>Pellar: "You... you’re the witcher, aye? The one who dealt with the wraiths in Blackbark Woods?"
+Witcher: "That’s me. What do you need?"
+Pellar: "Ritual. Needs guarding. Spirits... restless. Angry."
+Witcher: "What kind of ritual?"
+Pellar: "Cleansing. The land... tainted. Crops wither, cows birth stillborn calves. Must appease the spirits."
+Witcher: "Appeasing spirits usually means trouble. What’s causing it?"
+Pellar: "Curse. Old. Buried bones, bones that shouldn’t be disturbed. Folk did. Now the spirits lash out."
+Witcher: "And you want me to keep the angry spirits off your back while you fix it."
+Pellar: "Aye. It’s... dangerous. Spirits drawn to blood, to fear. You’ll be... distraction. Keep them at bay while I work."
+Witcher: "Dangerous for you, you mean. You plan on paying for this danger?"
+Pellar: "Forty crowns now. Forty more if we see dawn. Agreed?"
+Witcher: "Eighty total, huh? Fine. I’ll guard your bones, Pellar. When do we start?"
+Pellar: "Midnight. When the veil is thinnest. Meet by the old willow. And... bring your silver."
+Witcher: "Always do."</t>
+  </si>
+  <si>
+    <t>If you know no fear and seek work, read this notice, for the call contained therein will be of great interest to you.
+Hans of Cidaris, soldier of fortune and veteran of many wars, hereby makes known the following: Being greatly concerned about the fate of the local peasantry, which suffers horribly from the attacks of some monster nesting in the forest near Oxenfurt, I have decided to grant a purse of Novigrad crowns to the man who slays this beast.
+Yet may it be known that any man who comes to me without a trophy shall receive no gold, but instead shall be tossed out on his arse so hard he shan't sit again till the end of his days.
+Hans of Cidaris,
+World-famous soldier of fortune,
+veteran of numerous wars,
+Honored member of the Order of the Lily.</t>
+  </si>
+  <si>
+    <t>Hans of Cidaris was a mercenary around 1272 who, true to his profession, helped out anyone, whether it was Redanians or Temerians, as long as they could pay him and his men.
+However, he bit off more than he could chew one day, taking a contract (along with a big reward) from Oxenfurt to rid the forests of a vicious monster. He quickly learned they were clearly outmatched when 2 of the men suddenly disappeared while searching for the beast.
+With the city's council demanding he either do the job or pay back the advancement he was given under threat of being imprisoned, he put up his own notice for someone more experienced to help him, albeit hiding the fact that it was his contract originally and he'd been paid well for it.</t>
+  </si>
+  <si>
+    <t>Hans of Cidaris want to give money evidance of slaying beast from near forest.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write notice (from notice board) about: </t>
+  </si>
+  <si>
+    <t>Hans of Cidaris hereby declares his intention to reward any brave soul who can present evidence of slaying the beast terrorizing the outskirts of the nearby forest. The creature has caused great distress among the locals, and proof of its defeat will be generously compensated.
+Seek Hans at the Cidaris Inn for further details.
+May fortune favor the bold.</t>
+  </si>
+  <si>
+    <t>Mates,
+Way things are now, ain't a snowball's chance in summer we're gonna move the goods at a decent price. Too many finks, too few buyers. We gotta hide it and wait for better times to come, assuming they ever do.
+I know what you're thinking. That I'm trying to fuck you over. That I'll hoof it along with the treasure. Not that I hold that against you - don't trust you one whit either. So in order for us all to sleep soundly, let's do the following.
+We'll hide the loot at my place - behind a door with three locks, which, as you geniuses surely guessed, can only be opened with three keys, one held by each of us. That way we'll be sure no one'll plough the others and we'll split the gold evenly once it's all blown over. Deal?
+Fritz</t>
+  </si>
+  <si>
+    <t>Wallter was one of three thugs that were pursued by the Novigrad Guard for the alleged possession of "contraband connected with magic".</t>
+  </si>
+  <si>
+    <t>Lussi was one of three thugs and thieves that are pursued by the Novigrad Guard for the alleged possession of "contraband related to magic".</t>
+  </si>
+  <si>
+    <t>This is a two-part quest, with multiple phases that can be triggered and completed independently in any order, but are all connected and share a journal entry. In recent versions of the game, the two main parts will show as separate quests: "Novigrad, Closed City" and "Novigrad, Closed City II", or parts I and II respectively.
+While walking around Novigrad, Geralt can encounter either of the three people involved.
+In the upper middle of St. Gregory's Bridge towards Temple Isle, a woman named Lussi calls over and asks for help, explaining that her home is haunted. Geralt follows her to her home, which turns out to be a ransacked house with two witch hunters waiting in ambush whom the witcher has to fight. After they are dealt with, Geralt confronts the woman for leading him into a trap, and to make it up to him she gives a key to a treasure.
+At this point, the quest won't have more objectives unless Geralt already knows what to do with the key. To learn that, loot the witch hunters' corpses and read the warrant found on them, which will mark on the map where to find Lussi's partners for two more keys.
+Wallter is found screaming for help, banging on a door in the alley behind (north of) Crippled Kate's, and two witch hunters are closing in behind him. Geralt can either intervene and kill the witch hunters before they get to Wallter, or leave them to kill him. If he is saved, Wallter will give Geralt his key himself, while otherwise it can be looted off his remains.
+Similarly to the part with Lussi however, the witch hunters must be killed for the warrant to provide info on what the key is used for, unless that's already known from earlier. If this is the first encounter, the quest won't even start before the warrant is read.
+While Fritz's house will be marked on the map, the marker is either bugged or otherwise not showing the exact house on purpose - it's the second one east of Triss' hideout. Inside Geralt will find a corpse, presumably Fritz killed by witch hunters. If you go the second floor, light the torch beside the stairs and it will open a secret compartment. Inside the compartment is a letter, Fritz's key and the locked safe that requires all 3 keys to open. If this is the first location that Geralt has been to, the letter will tell everything that needs to be done.
+The quest, or this first part of it, completes when Geralt has all 3 keys and unlocks the safe with a nice treasure for his trouble.</t>
+  </si>
+  <si>
+    <t>Message from Fritz to Wallter and Lussi, about problem with buesiness and his idea of three key chest for their treasure.</t>
+  </si>
+  <si>
+    <t>To Wallter and Lussi:
+We've got a problem with the business—trust issues are growing, and we need a way to secure our earnings. I suggest we store the treasure in a chest locked with three keys. Each of us will hold one key, so the chest can only be opened when all three are present. This way, no one can take from it alone, and our profits stay safe.
+Let me know what you think.
+— Fritz</t>
+  </si>
+  <si>
+    <t>Widower, 60 years of age, of medium height, above-average intellect, possessing a fortune in both species and real estate, seeks old maid or childless widow of a similar age or somewhat older, preferably from a landed family. Those interested are requested to send a missive with a (faithful!) engraving of their likeness included, to Poste Restante Gildorf, c/o "Romantic."
+P.S. No response will be given to letters without a full name and valid return address.
+P.P.S. Women of the elder races, halflings in particular, need not inquire.</t>
+  </si>
+  <si>
+    <t>Widower</t>
+  </si>
+  <si>
+    <t>Rich old widower search for romantic partner</t>
+  </si>
+  <si>
+    <t>Oxenfurt is a Redanian city located on the northern shore of the Pontar river and southeast of Novigrad. It is famous for its Academy, which is the largest in the Northern Kingdoms. It is about three hundred miles west of Tretogor.
+It is a bustling and bawdy haven for students, artists, scholars, and freethinkers. Here the young reign supreme (in spirit, if not always in fact), with a mug of something strong in hand as they blaze new trails in fashion and thought, confident that the rest of the world will soon follow.</t>
+  </si>
+  <si>
+    <t>Esteemed widower of advanced years, blessed with wealth and refined taste, seeks a mature and dignified lady for companionship. Preferably a widow or a lady of similar age, with grace, wisdom, and a kind heart. A landed background is welcome but not essential.
+If you possess a spirit as resilient as your beauty and seek pleasant company, please respond with a letter, including your full name, a valid return address, and a faithful likeness.
+Responses to be sent to: Poste Restante Gildorf, c/o "Romantic Soul"
+P.S. Ladies of elder races, especially halflings, need not apply.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While searching for the witch Ciri had quarreled with, Geralt ran into an old friend – Keira Metz. The sorceress told the witcher about a masked mage. Ciri, it seemed, had taken shelter in his hideout. The witcher set off to find it, with Keira in tow.
+</t>
+  </si>
+  <si>
+    <t>Geralt was searching for the sorceress with whom Ciri had earlier quarreled. During his search, Geralt came across his old acquaintance, the sorceress Keira Metz, who informed him of the masked sorcerer in whose hideout Ciri had taken refuge. Geralt set out to find the magician's hideout, and Keira joined him.</t>
+  </si>
+  <si>
+    <t>Ciri encountered the Crones in the bog. The Crones took Ciri in but hesitated between eating her or handing her over to the Wild Hunt. Ciri escaped before they could decide. A spectral rider pursued her into the swamp. Geralt later arrived but lost her trail in the swamp.</t>
+  </si>
+  <si>
+    <t>While in Crookback Bog, Ciri had happened on the Crones. The beastly sisters took her in, then wavered, unsure if they should eat her or surrender her to the Wild Hunt. Ciri escaped before they could decide. Pursued by a spectral rider, she had fled into the swamp – where Geralt lost her trail once more. He now needed a new lead.</t>
+  </si>
+  <si>
+    <t>Geralt can either learn the location of the witch by listening to the villagers of Midcopse or going directly to the witch's home. There are a few specific villagers that Geralt can speak to, and this is best accomplished during the day as most people are asleep and unresponsive to questioning at night. There are 3 ways to find the witch's location:
+Two peasant women near the village well are gossiping outside a house in front of a small fire. Geralt can eavesdrop on their conversation, but if he gets too close they will quiet each other until he walks further away.
+An old man smoking a pipe near the western entrance of the village will quickly offer up the witch's location.
+One peasant woman who can usually be found outside her home sweeping near the village well mentions a witch. If asked, she will direct Geralt to speak with her husband who recently went to visit the witch to cure a bad back injury. Approach the husband near the rear of the house, but he won't give up the information easily, so either pay 50  or use Axii (requires Delusion level 1, 25XP earned based on the Story and Swords! difficulty level) to loosen his tongue and he will describe the trail to follow. If you do neither and exit the conversation while moving a short distance away (outside the back fence at least), he'll eventually leave the village and you can follow, then rescue him when he is attacked by a pack of 5 nekkers and he will offer directions to the witch out of gratitude. While it can be hard to trigger him leaving the village, like with the other residents, it is recommended to do this early in the day so that he has time to walk there before nightfall.
+You can even do all 3 if you wish, being successful in one method doesn't prevent the others from triggering.
+Search just north of the village for the pond and the road that runs along it lengthwise. After reaching the northwestern tip of the pond, a large rock should be visible, standing tall just a bit further to the northwest. This boulder marks the start of a path off the main road to the right which Geralt should follow to an abandoned cart that's usually guarded over by a pack of 5 nekkers. The witch's hut is straight on down the path.
+As Geralt approaches the witch's hut, he sees a large group of villagers asking for her help. After giving them instructions, she then tells them all to leave as she is done helping people for the day. Obviously the rules don't apply to Geralt so go ahead and barge right into her home. Inside, the witch appears to be missing. Search about the place to figure out where she's disappeared to. 
+Reaching for the skull, it will glow with power and open up a portal to an unknown location. So that's where she disappeared to. Walk into the portal and Geralt will be transported to an underground cavern complete with grass, shrubs, trees, and a large rabbit population. Approach the building in the center of the cavern and Keira Metz, the witch, will call out to Geralt to ascend the stairs to come see her. Hurry up the steps to be greeted by a "pleasant view."
+Speak with Keira to learn about her dealings in Velen and other sorceresses of the lodge. Keira will tell the witcher that a masked, elven mage had been asking about Ciri and that if Keira met her, to lead her to him. Keira offers to bring you to meet this mage, who is hiding in some elven ruins in the southwestern wilderness just northwest of Byways. You can choose to go straight away with her or agree to meet her there. Note that the meeting place is quite far away, with no safe fast travel points nearby, and possibly nasty enemies on the way, but you also shouldn't go unprepared. Regardless of choice, the quest will then end.
+If you didn't head out immediately with Keira, make your way to the elven ruins, otherwise you'll arrive at them with Keira. There's a chest above the entrance that you may want to loot for random diagrams before going in. Follow her into the ruins where, just after you pass the second archway, Geralt will see members of the Wild Hunt on the other side of the cavern. Needing to catch up to them quickly, he asked Keira to open a portal to the other side, but it goes wrong and the two are separated.
+Note: If Geralt ignores the portal he will remain in the main chamber and will begin his search for Keira from there. This may be preferable to going through the portal as you will otherwise be teleported to a cavern far from the main chamber and you will have to fight drowners and foglets to get back to it to find Keira.
+If you did go through the portal, take out the drowners then make your way through the underwater tunnel (a chest here has a random diagram). The path will eventually split: the left will take you out to the main chamber where some drowners are and the right will as well, but you'll have to fight a foglet prior to the main chamber.
+Once back at the area before you took the portal, head to the right, then right again to find Keira calling for help while casting spells. Apparently she's not a big fan of rats. Destroy the rat nests with either bombs or Igni to receive 100XP earned based on the Story and Swords! difficulty level for each destroyed nest. Keira will explain that there is something distorting her teleportation and demand that they leave the caverns. Use any dialogue option to convince her to stay and pursue the Wild Hunt.
+Continue the search to find a morphotic projection from the elf. Geralt's knowledge of Ciri's sword name, Zireael (elven for "Swallow") allows him to figure out they need to follow images of a swallow. Continue onwards to enter a cavern that appears to have once been a port, where you'll have to fight 4 wraiths among poisonous clouds.
+Note: You can disperse the toxic clouds made by the mushrooms native to this cave using either Aard or Igni, the latter causing a large explosion of fire. However, before the wraiths are dead, it is safer to stay near the stairs and let Keira attract them there.
+If you're looking for diagrams, go into the underwater tunnel to the left of where you entered (marked with an octopus/kayran). There are 2 separate chests in the tunnel that each spawn a random diagram, and the chest on the other side of the tunnel spawns 2 more (just beware 4 wraiths will spawn once you interact with this one). There is also a chest in the dead end tunnel across from where you entered the cavern with a random diagram.
+Once you've explored and looted everything, head to the right tunnel to find a swallow painting and follow the path to eventually find another projection. (100XP earned based on the Story and Swords! difficulty level) This projection makes a reference to Kelpie, a sea monster and the name of Ciri's horse. There are two symbols nearby, one of a dog and the other of a kayran. The dog symbol will cause an explosion when activated that will damage Geralt and the kayran symbol will summon a pair of wraiths disguised as clones of Geralt and Keira. The kelpie symbol is below, in the octagonal pool, so Geralt will have to jump down into the pool to investigate. Bug: Sometimes the player will not be able to dive in, requiring a reload. Follow the clue and find another horse symbol after passing through a flooded passageway. The second symbol activates a door in the main chamber where Geralt left Keira.
+Rejoin the sorceress and head through the new passage to find an inactive portal that was the reason Keira's portal didn't work. Activate the swallow painting and head through the portal to a new area where a golem awaits.
+Keira does a decent job of stunning the golem, keeping him at bay if Geralt needs time to heal or regenerate stamina. Elementa oil or dimeritium bombs are most effective against the beast. Once the golem is defeated, continue up the stairs and the down the passage. Once done, be sure to loot the chest to the left of where you entered and the chest right after you climb up the scaffolding.
+Eventually the path will split: the first doorway on the left will lead to another portal which will teleport Geralt and Keira to the other side of the bridge, while the right will eventually lead to a cavern with a gargoyle. Note that just before this room is a chest that will have an oil recipe, that is often for elementa oil and up to 2 other random diagrams. If Geralt goes here, the door will close behind him and a gargoyle will appear that must be defeated to escape the room. There is some loot in this room, so it might be worth fighting it, even though it is optional.
+Rush to catch up to the Wild Hunt to find the cave guardians frozen by the riders. The duo catch up to the Wild Hunt, only to have their navigator open three portals to the White Frost, causing a blizzard.
+Keira will shield Geralt as the two walk through the room. Geralt must protect Keira from Wild Hunt Hounds as she closes the portals. Up to 15 hounds (depending on difficulty setting) in groups of two to five will spawn from each portal as the pair work through the room closing them. Stay close to Keira, as the white frost is very damaging and Keira can easily be swarmed with hounds if left alone for too long. To close the portals, another solution is to throw dimeritium bombs, or cast Yrden close enough to the spots as you walk - doing either will prevent the hounds from spawning and the portals will be closed directly after Keira Metz' spell. Once the last of the portals is closed, Keira lowers the shield and nearly faints in Geralt's arms. You receive 100XP earned based on the Story and Swords! difficulty level at the completion of this objective. Geralt will then have two timed dialogue choices:
+Just don't faint on me - will increase Keira's romance level with Geralt
+If you can't go on - will not increase Keira's romance level with Geralt
+The way ahead is blocked, but Keira will open the way into the next room. Head through, where you can find a partially blocked side passage ahead. Use Aard, then go inside to find a couple of loot chests and a foglet (the second chest tends to have a random diagram). Now go back to the main tunnel where ahead waits a single Wild Hunt warrior, Nithral.
+Note: You may wish to meditate and prepare potions and oils before jumping down on the platform with the enemy warrior. Swallow and Thunderbolt (+30 % attack) potions may come particularly handy. Once this battle is joined there is no escaping until Nithral is defeated.
+Nithral is a rather slow attacker, using a two handed weapon, so attack him quickly and as often as possible before ducking out of the way of his much more damaging swings.
+He appears to be relatively resistant to staggering from attacks and he parries frequently, plus he is highly resistant to Axii, Aard, and Yrden. Quen is your best Sign option against him; turn it on, let rip through his first attack then roll away when he starts winding up a follow-up. An effective strategy is, when his first Freeze Bubble expires, quickly use Thunderbolt potion (+30 % attack), and then pummel him only with strong attacks, using Swallow potion when his (or your) health reaches one third. With bit of a luck he will go down before your health gets entirely depleted, and before he can deploy 2nd wave of hounds.
+At around three-quarters and half Nithral will summon a rift that brings hounds to his aid and will attempt to heal inside of a magic bubble, do not attack him directly, instead kill his summoned minions as fast as you can. When all of his minions are gone he will stop healing and again be susceptible to damage. If attacked while healing, Geralt will be dealt a large amount of damage. Nithral heals about 3% every two seconds while in his magic bubble so be quick about defeating his summoned creatures. Attacks that pierce his armor are most effective.
+After Nithral is defeated, Geralt will find yet another projection for Ciri, saying that the place isn't safe and that she should avoid the witches of Crookback Bog. Keira tells Geralt of the legend of the witches, and Geralt realizes if he is to find Ciri's path, he will need to find these powerful witches. Searching this area will find the following clues about the mysterious elven mage:
+Herbs - Mysterious mage herbalist
+Empty Potion Bottle - Potion that Keira gave him, must have drank it
+Half burned notes - Must have burned these notes himself, must have known the Hunt was looking for him
+After the White Frost - Book of interest to the Hunt
+Geralt notices a wall blocking a doorway that makes his amulet vibrate and Keira remarks it's an illusion before giving Geralt an item called The Eye of Nehaleni, which can be used to dispel illusions.
+Note: At the end of the chamber where you fight Nithral, opposite the side where the elven laboratory is set up, is a chest containing a random diagram, and to the left, a blocked up doorway which can be cleared with Aard. Inside is an illusion that can be dispersed with The Eye of Nehaleni. Beyond the illusion is a flooded area with loot and a chest with Maugrim guarded by a foglet appearing after you open it.
+At the first junction past the illusion, Keira asks Geralt to continue in the opposite direction so she can find the Magic Lamp the elf promised her. Geralt can either choose to leave or go with her, ending the quest (350XP earned based on the Story and Swords! difficulty level) and starting the new quest, Magic Lamp. Even if you said you're leaving though, you can still just follow her to start the quest.</t>
+  </si>
+  <si>
+    <t>Having hidden in another world for over half a year, the Wild Hunt eventually found Ciri, forcing her to flee. At some point Ciri discovered that Geralt had been captured by the Wild Hunt and managed to free him and send him to the forests outside of Kaer Morhen although he lost his memory in the process. Several months later Ciri, along with an elf named Avallac'h, returned from another world and ended up in Skellige where the Wild Hunt found and attacked them. Avallac'h was cursed during this attack before the two could teleport away, but were split up in the process.
+Ciri appeared in Crookback Bog where she collapsed and was found by the Crones. The Crones intended to give her to the Wild Hunt however, as she possessed Elder blood, they couldn't decide whether to cut her up for her blood or not. Having overheard this, Ciri escaped and fled into the nearby forest, narrowly evading Imlerith. Traveling west into Velen, she encountered a young girl named Gretka who was lost and rescued her as well as a local man from a werewolf. She was then taken to Crow's Perch and taken in by Phillip Strenger (known as the Bloody Baron) who alongside his men she befriended. During a race with Philip, the two are attacked by a basilisk and Ciri was forced to use her powers to save him. However, Ciri realized that Wild Hunt would sense her powers so she left Crow's Perch and headed to Novigrad.
+Ciri tracked down Dandelion to enlist his help in repairing a phylactery to lift the curse on Avallac'h, though she excluded the identity of her friend. After evading a trap set by the Temple Guard, Dandelion suggested going to Cyprian "Whoreson Junior" Wiley, who agreed to fix the phylactery in exchange for stealing Sigi Reuven's treasure. Wiley later turned on them, capturing and torturing their friend Dudu. Ciri managed to rescue Dudu but her activities got the attention of the Temple Guard, who chased her towards Temple Isle. Just as a crossbowman took a shot at her, Ciri teleported herself to safety.
+Ciri teleported all the way to Skellige, landing on the shores of Hindarsfjall, where she fell unconscious, dropping into a lake. Avallac'h and a native Skelliger, Skjall, found the injured girl and took her to Skjall's home to recover. When she came to, Ciri accepted the invitation to heal at the local sauna. But soon as she prepared to depart, the Wild Hunt descended on the village, forcing Ciri to flee once more. She found her way to Avallac'h, who was waiting with a boat. But upon seeing Skjall being cut down by a Red Rider, she attempted to turn back to help him, but Avallac'h stunned her with a sleeping spell and took her on a ship.
+Before Eredin's curse fully triggered, Avallac'h managed to bring Ciri to the Isle of Mists and put Ciri in a death-like slumber to hide her from the Wild Hunt. Avallac'h then sailed back to Skellige but the curse took hold, rendering it impossible for him to tell anyone who he was or where he hid Ciri. While Ciri slept, seven dwarves found her in the cabin and hid there as well, though they believed she was dead.
+Later on, Ciri was finally found by Geralt and once she was awakened by the magical firefly the witcher was given by a cured Avallac'h, the two embraced and caught up on all that'd happened when Ciri tried to return home, including what'd she learned: the Aen Elle world was facing annihilation and so the King of the Wild Hunt was trying to catch Ciri to use her to open a powerful enough portal to allow an army through to conquer their world.
+As they prepare to leave, they discover the dwarves hadn't bothered to wait and took Geralt's boat to flee the Isle, before spotting the Wild Hunt's flagship, the Naglfar, in the distance, forcing Ciri to teleport them directly to Kaer Morhen.</t>
+  </si>
+  <si>
+    <t>Said a hag to a hag, 'Now here's a stunt, I'll shove a rake right up your cunt!</t>
+  </si>
+  <si>
+    <t>woman peasant</t>
+  </si>
+  <si>
+    <t>Geralt: They say the Wild Hunt destroyed this village…
+Skellige Priestess 02: That is true… Though few believe us. You don't either, I'm sure.
+Yennefer: Did you see riders on skeletal horses? Wearing frost-covered armor?
+Skellige Woman: Aye… That's how it was… They landed on our shores in a ship made of the claws of dead men… Like in the ballads.
+Skellige Woman: Leif yelled to grab the children… Then they came… Cut him 'cross his face. He tried to whisper… Only blood came out…
+Skellige Priestess 01: You were to ask about someone, not prod their wounds. That's enough.
+Yennefer: What happened then?</t>
+  </si>
+  <si>
+    <t>Freya Priestess is old and wise serving the goddess Modron Freya residing near Freya's Garden on Hindarsfjall. She is an alchemist and sells alchemical supplies.</t>
+  </si>
+  <si>
+    <t>Yennefer of Vengerberg, born as Janka on Belleteyn in 1173, was a sorceress who lived in Vengerberg, the capital city of Aedirn. She was Geralt of Rivia's true love and a mother figure to Ciri, whom she viewed like a daughter to the point that she did everything she could to rescue the girl and keep her from harm.
+She helped advise King Demavend of Aedirn (though was never a formal royal advisor), was a close friend of Triss Merigold, and the youngest member of the Council of Wizards within the Brotherhood of Sorcerers. After its fall, the Lodge of Sorceresses attempted to recruit her, but they didn't see eye to eye as the Lodge wanted to advance their own political agenda by using Ciri.</t>
+  </si>
+  <si>
+    <t>If you didn't teleport with Yennefer immediately after the previous quest, you have to meet her on the beach at Hindarsfjall. If you already haven't, you may want to buy The Lonesome World Guide to Hindarsfjall to save a boat trip. Once there, go to Lofoten with Yennefer.
+The Wild Hunt clearly weren't there for a social visit as you will find a mass of graves. Just past the entrance to the village there's a fisherman who can be talked to, but he turns out to be quite useless. Eventually you will find priestesses performing a ritual honoring the fallen, Geralt suggests waiting, however Yennefer is not kind enough to wait and interrupts them. Like it or not you will inquire on what happened. Eventually the conversation will move on to Skjall and how he went to fight Morkvarg to regain his honor. If the quest In Wolf's Clothing was started but not completed, it will be updated now with info about the monster. If it was completed, Geralt will just mention the results of their meeting. Regardless it's time to go to Freya's Garden. Once you reach the garden the quest ends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk between Yennefer, Geralt, Skellige Woman and two Priestesses. Geralt and Yenner asks about destruction of the village by Wild Hunt. </t>
+  </si>
+  <si>
+    <t>Yennefer: "How long since it happened?"
+Skellige Woman: "Three nights past. Came out of nowhere. Frost bit the ground, and the sky... it screamed."
+Geralt: "You saw them? The Wild Hunt?"
+Priestess 1: "Aye. Wraiths on black steeds, cloaked in ice and death. Tore through the village like a winter storm."
+Yennefer: "Did they take anyone?"
+Skellige Woman: "Hilda... and Olav’s boy. Gone. The rest... slaughtered. Like beasts."
+Priestess 2: "We found Hilda’s scarf near the cliffs. No tracks. Just... frost."
+Geralt: "Any survivors besides you?"
+Skellige Woman: "Few of us hid in the smokehouse. Didn’t dare move till dawn. When we crawled out... everything was ash. The fields, the houses... even the gods’ altar. Burned."
+Yennefer: "Did anyone see where they came from? Or where they went?"
+Priestess 1: "North. Toward the fjords. But they vanished with the morning light. Left only cold and ruin."
+Geralt: "Did you notice anything unusual before they came? Signs, omens?"
+Priestess 2: "The sacred oak cracked. Split clean in half. We thought it a bad omen, but... never this."
+Yennefer: "The Wild Hunt rarely strikes without reason. Did anyone here cross paths with strangers? Outsiders?"
+Skellige Woman: "A man passed through. Hooded, quiet. Carried a strange staff. Stayed one night, then gone by dawn."
+Geralt: "And you didn’t think to mention this before?"
+Priestess 1: "We thought him a simple druid. Seeking shelter. Didn’t know he’d bring death with him."
+Yennefer: (sighs) "Geralt, we need to find that druid. He might have drawn them here."
+Geralt: "Agreed. Which way did he go?"
+Priestess 2: "West, toward the whale graveyard. Said he needed bones for his rites."
+Yennefer: "If the Hunt’s tracking him, we’re already behind. Let’s move."</t>
+  </si>
+  <si>
+    <t>Troll_2: Yum! Yum!
+Troll_3: Good 'uman, good soup.
+Troll_2: Salty?
+Troll_3: Salty.
+Troll_2: Heheh, eyein' me is he.
+Troll_3: Heheh, spyin' soup.
+Folan: Ploughin' smash youse with a sledgehammer, as I'm Folan, son of Ulf! Your mothers'll be pickin' you up, pebble by fuckin' pebble!
+Troll_2: Angry no! Angry bitter!
+Troll_3: Splashing soup!</t>
+  </si>
+  <si>
+    <t>Before you set out to Undvik you should go to The New Port inn to get extra info on how to reach the island. You don't actually need to do this, but it's still a mission objective. Speaking just to Tante and Javor there is enough to complete it. However, if you also speak to Axel you will get extra information about the Jarl of Undvik, allowing Geralt to recognize him later and unlocking extra conversation options with him.
+When you're ready, if you've bought The Lonesome World Guide to Undvik, then you may simply fast travel to Marlin Coast, otherwise you have to get on a boat. Sail there manually or use a fast travel harbor if you've been nearby before.
+Keep in mind that this quest is long especially if you wish to save every survivor, so feel free to take your time to explore the island while at it, as you'll have to search most of it anyway. If you made shore on the northern part of the island, it's easier to move southeast to the nearest village on the island - Marlin Coast, at least to get its signpost tagged. However, the intended path if you want to examine everything is directly south from Undvik Boatyards. Along the way you may find some graves and shields with the an Craite clan symbols. Now follow the main path uphill from whichever point you chose, both converge at a broken bridge over a deep ravine. If you are uncertain which way then use your minimap and it will lead you toward your quest marker. Eventually you will reach a point where a cutscene will play in which the ice giant is feeding raw meat to the sirens and someone inside the nearby ship. After the cutscene you will have the option to explore the ship or move on.
+Once you get close to the ship you will hear singing and you may have to kill a couple of sirens. Then climb inside through the opening, where you will meet an old man named Octo. The entrance may be hard to spot - stay on the eastern side of the ship and light a torch if you have to. Talk to the man and if you spoke to Axel back at the Inn, you can discover his true identity. Apparently he is a bit mad as he says he and the Sirens are preparing the boat for the giant before his battle with the gods and the meat the giant feeds them is from all the humans it has slain. After asking about Hjalmar and obtaining directions to the camp, he will ask for some twine and nails. The "twine" is entirely bugged and the quest always works as if you found it, but the nails you have to find are a quest item and will have white sparkles coming off of them. If you already have the quest nails, you can give them to Octo in this conversation. Otherwise you will have to go looking for them after the conversation is over.
+Once you are finished exploring the area with the boat, you can follow the marker to the next area. Before reaching the destination, you can actually skip all other optional parts of the mission with ease. If you wish to do that, then beeline for the lake to the south in whatever way you find convenient, and from there on it's just a matter of walking east to Dorve Ruins, where you'll find Hjalmar, skipping all the next few sections. Obviously though, you'd be missing out on a lot. Back onto following the quest objective, you will reach a camp that looks more like a morgue, with many bodies around. Use your witcher senses to examine the place and you will have two tracks to follow - footsteps and tracks left by a boat being pulled.
+Following the footsteps you will find a dead nekker and some arrows along the way, later some more dead nekkers and eventually the trail will take you to the Abandoned Village. Now keep following the trail north and they will take you to a body, and to the left of it you can find the hornwall horn - a very useful item, though not immediately necessary and you'll get back here again. Nearby you will also find more footprints, both troll ones and the archer's, that will lead you into a cave.
+Inside the cave you will encounter ice trolls, one at each branch of the tunnels, but you may only have to deal with one if you follow the tail of blood. While on the right track, eventually Geralt will make a remark about something getting cooked and after climbing a ledge you will hear some trolls talking about soup. Once close enough, Geralt will start conversing with the trolls. They are cooking the archer who will yell to you for help and you can either kill the trolls or decide to play a guessing game with them.
+The answer to the troll's first riddle is "troll". The trolls are then unable to answer Geralt's riddle and the archer is freed. If you answered incorrectly, you are able to play a second round. The second riddle's correct answer is "rocks". However, if you answer the second riddle incorrectly it will be too late to save the archer.
+The man you saved either way is Folan and he may ask you about Cerys. Geralt will have a more substantive response if you already completed Possession, but regardless you need to ask him about Hjalmar and the rest of the company. After the conversation he will join you and help with his bow. (200XP earned based on the Story and Swords! difficulty level) Now go back to the camp to follow the other trail.
+Following the drag trail you will eventually find the boat and a dead body just at the edge of Urskar. At this point you may have the objective to cross the lake to the east (particularly if you examined the boat) and doing so is effectively a shortcut, as the path on the other end will lead you to Hjalmar and you eventually get there anyway. If you choose this route, there may be a couple of wraiths on the shoreline path, and further ahead some pirates associated with the aptly named treasure hunt quest Shortcut. However, if you wish to complete all objectives, head into the village.
+In Urskar you will find a few more clues to examine, including footsteps leading to a cliff edge inside a cave. Approach the cliff and Geralt will remark that the lake below appears deep enough that it would be safe to jump in. Dive into the subterranean lake, and make your way out of the cave by following the trail up, dealing with any erynias nearby. While traversing, you will find a body and if Folan is with you he will identify it as "Thorsten." Now climb the wall near him and keep going along your new path. Soon you will find the body of "Arvid an Tordarroch," after which climb the next wall. Eventually you will find a chamber containing a tree and a lot of harpies guarding it. Folan will start shooting there and you can can kill them if you want to loot the area (there are some in the waters below too), but that's not necessary. Use the ladder just around the left corner from where you came to reach a mine corridor. You will have to deal with a few devourers there before arriving at Clan Tordarroch Forge on the other end.
+Enter the house and a cutscene will play where you find the scene of a massacre, but if Folan is with you he will comment that none of the bodies belong to Hjalmar. A devourer is then seen running into a room and you can go investigate that if you wish, but keep in mind that there are multiple of them in a very tight space, so this can be tough. It's easy to just run past them and through the broken wall on the other end of the building where you will see footsteps. One set are the giant's, but follow the human ones when the two eventually split. You will soon find yourself on the path which the lake crossing would've lead to and your quest markers will update as you reach Dorve Ruins.
+At the ruined settlement you find Hjalmar fighting a couple of sirens. Kill them off and a conversation will begin, with Folan taking part too if you rescued him. At the end of the conversation, you set off together to find the giant. If you don't stay close Hjalmar will comment that he'll await you ahead at the cave entrance, but don't worry about that - this quest is buggy all around, but nothing fails here.
+Once you reach the lair a cutscene will play where Geralt and Hjalmar clear a path. After that go inside and reach your main goal. The giant is sleeping, but you will also find Vigi the Loon in a cage, asking you to free him. Hjalmar will tell you to leave him there, but you can free him even if you agree. To do so, you need to avoid walking on snow until you free Vigi, or the giant will wake up and kill him. Also, don't try to pre-cast Quen as that seems to wake him up too. If you succeed, the Loon will join the fight, but as his name implies instantly charges at the giant and kicks him. 
+Regardless, it's time to fight the giant. Prepare yourself with ogroid oil and whatever else you need. After the giant is down by about 33% a cutscene will play where it knocks Geralt away and picks up an anchor as a weapon.
+The giant obviously hits hard, so try to keep your Quen up at all times. Launch your attacks after he swings the anchor and it gets stuck in the ground. After he is dead (100XP earned based on the Story and Swords! difficulty level), the quest ends and another conversation begins, at the end of which another 50XP earned based on the Story and Swords! difficulty level will be awarded if you rescued Folan and kept him alive.
+Hjalmar will say he'll make sure everyone hears about Geralt's victory over the giant, which you can choose to accept or tell him to take the glory. Note: If Geralt accepts the praise, he will receive a 10% discount with all merchants in Skellige. It doesn't matter if any of the optional objectives are completed, only this one dialogue choice matters.
+Either way, you will now have the choice to stay or go with him/them. (500XP earned based on the Story and Swords! difficulty level) If you stay for the loot, he/they will be waiting at the harbor and you can later meet Hjalmar in Marlin Coast. If you talk to him there, it's only an unimportant conversation about his return to Ard Skellig and various dialogue options about his sister, depending on whether you've helped her during Possession. You can also go back and inform the Stranger that the Giant is dead if you wish, but at this point it's too late to get XP earned based on the Story and Swords! difficulty level for giving him nails.</t>
+  </si>
+  <si>
+    <t>Trolls are giant, humanoid creatures. Trolls possess a certain level of intelligence, and are able to use simple sentences to communicate with humans and amongst themselves, while others are even able to draw[1] or write.[2] They usually reside in the wild, but often are found living under bridges (which they often build themselves) and demand toll from travelers. While witchers used to kill trolls in the past (as some trolls eat or ate human flesh), nowadays often people are used to having a troll around, especially considering that paying the toll is cheaper than maintenance of the bridge.
+Yennefer had a giant mountain troll penis in her collection. There is a common belief that trolls are petrified by sunlight, but it's not true.</t>
+  </si>
+  <si>
+    <t>Folan was a Skelliger warrior from Clan Tuirseach, and a companion of Hjalmar during the expedition to slay the ice giant Myrhyff.</t>
+  </si>
+  <si>
+    <t>Two Trolls talks about soup from human Folan (already in jar) which verbaly attacks them.</t>
+  </si>
+  <si>
+    <t>Folan: "You brainless rockheads! Let me out! I'll gut you both!"
+Troll 1: "Hah! Folan loud even in jar. Folan think scary."
+Troll 2: "Jar make Folan small. Small man, big mouth. Hurt troll ears."
+Folan: "When I get out, I'll hack your legs off! Use your skulls as mugs!"
+Troll 1: "Folan want soup, or be soup?"
+Troll 2: "Think Folan already soup. In jar. Just need heat."
+Folan: "I'll roast you both over a fire, you walking boulders!"
+Troll 1: "Folan roast trolls? Hah! Funny Folan."
+Troll 2: "Maybe roast Folan instead. Jar keep juice in. Good for soup."
+Troll 1: "Add roots? Make Folan soft. Folan too crunchy now."
+Folan: "Crunchy?! I'll show you crunchy when I break free!"
+Troll 2: "Hmmm... Folan noisy soup. Maybe add mushrooms. Make quiet."
+Troll 1: "Or smash jar first. Then soup. Less noise."
+Folan: "I'll have your heads on pikes! You'll regret this!"
+Troll 2: "Folan say many things. Trolls not listen. Soup not need talking."
+Troll 1: "Aye. Soup just need Folan. No mouth. More taste."
+Troll 2: "Heat pot. Folan stew soon. Good soup day."</t>
+  </si>
+  <si>
+    <t>Regis: Yes, Geralt. It's me.
+Geralt: Regis…? I… You all right?
+Regis: All is well, all's in order. Wounds such as these heal on vampires in moments. But we've not seen one another in ages, my friend. At least in human terms, that is.
+Geralt: How's this even possible? Last I saw you--
+Regis: I was a bubbling, shapeless smear, having been rather spectacularly melted into a column of a certain castle.
+Regis: In somewhat better shape now, as you can see. Hardly peak form, mind you, but were I human, folk would think me a demigod, I daresay.
+Geralt: I'm sorry. What happened - it was my fault. Never got a chance to apologize.
+Regis: No need, Geralt. Bygones. I did not have to join you on that expedition. No one twisted my arm.</t>
+  </si>
+  <si>
+    <t>Head to Mère-Lachaiselongue Cemetery and try the only door to the crypt, but Regis isn't answering so you must find another way in. There will be an archespore and a ghoul around if you haven't cleared them previously. Nearby is an open tomb so drop down and kill the kikimores here. Note that if you destroy all the eggs here using Igni, you get 100XP earned based on the Story and Swords! difficulty level but then a kikimore warrior will appear that you must also kill.
+Head further in where you can go left or right. The supposedly dead end on the left though is actually an illusion: using The Eye of Nehaleni on it will reveal a sarcophagus, on which you can find the Casus Foederis sword and a note. Turn around and you can enter the crypt from immediately to your left, or backtrack to the other path, where Aard can be used to remove some debris before entering from there. However you got in, a cutscene will follow. (450XP earned based on the Story and Swords! difficulty level)
+After reintroductions, Geralt shows the severed hand to Regis, who comes up with a plan to brew a Resonance potion, which would aid your mission to find Dettlaff. However, the potion requires a rare type of ingredient, which Geralt names three options for, and Regis will send some helper ravens to search for them. While waiting, you can choose to talk or not, with as many options as you wish until you've exhausted them all. Eventually Regis gets word that a spotted wight is actually in the area, despite Geralt saying that specific subspecies of wights were extinct. Read the bestiary entry for 100XP earned based on the Story and Swords! difficulty level if you wish and it's time to go find it.
+Head out to the Trastamara Estate Ruins, all the way west of the cemetery. Note: chances are, the path will take you right by Doren Alma Estate, where the secondary quest Extreme Cosplay will trigger, if not done already. This quest can be difficult at low levels, so consider taking another route to not trigger this yet if you want to do it later, as it must be taken care of immediately or will disappear once passed by.
+There are spoons everywhere at the ruins, and several barghests to deal with on the way to the main house. Once you approach the doorway, a small cutscene starts where Geralt reads the curse that's scratched all over the walls. Enter the place and search it thoroughly if you wish to lift the curse. While not necessary, there are also multiple documents related to the curse, starting with a soiled letter on a bench outside the house (to the left when facing the entrance), a stained diary in the oven left of the entrance, a decaying letter near the table with the skeletons, and a book in the cellar (to the left, before dropping into the spoon-covered area).
+There are examinable spoons everywhere inside, but only one is worth noting: a spoon key (starts the Spoontaneous Profits! treasure hunt) in a corner at the room to the far right, where Geralt will start reading more curse writings from the walls. There's also an easily missable vial containing a greater green mutagen, in the room with the cauldron. Once you examine the cauldron, Geralt will decide to hide and you can go in the nearby cupboard.
+This is also the default if Geralt doesn't know how to lift the curse. The "Spoon Collector" will run into the cellar with the spoon-covered floor and Geralt must kill it (650XP earned based on the Story and Swords! difficulty level), then loot the body for a wight saliva gland. (1,000XP earned based on the Story and Swords! difficulty level) It will also have the Wight trophy and a key opening the nearby locked tunnel.
+Geralt will first get some wight brew (1,000XP earned based on the Story and Swords! difficulty level) and then you're given 3 choices, but only the option to eat without spoons is correct. If you choose any other option, it'll fail to lift and the wight runs off. You don't need to chase and kill it as you already got the wight brew. If you do chase after it, it'll have run into the room with all the spoons like if you straight out attacked it instead. If you do kill it here, you will get 650XP earned based on the Story and Swords! difficulty level and all loot items that you would've gotten by outright attacking it.
+If the curse is lifted, it still runs away, but in this case it leaves a stench trail leading outside, which again is optional to follow. If you choose to follow, you may have to deal with a couple of barghests before finding out that the wight was a cursed woman, Marlene. A small cutscene then happens where Geralt takes her to Corvo Bianco for her to recover. If you've yet to visit your home, the initial conversation with Barnabas-Basil Foulty is a bit different, but either way at the end of the conversation you will receive 1,000XP earned based on the Story and Swords! difficulty level for finding Marlene. 48 hours later, The Hunger Game will automatically start (it doesn't matter if you tell BB her story or not).
+Head back to the cemetery and talk to Regis, who needs one last ingredient and Geralt must help him get it at Tesham Mutna Ruins. You can choose to go immediately or prepare first, but you're actually allowed to just leave him there once you head out. Either way, when the conversation or cutscene ends you will receive 400XP earned based on the Story and Swords! difficulty level. When you decide to go, Regis will put himself in a state to ensure you'll get the last ingredient and you'll be at Tesham Mutna, where he reveals a secret entrance and you can examine a body by the door, but much more interesting things await inside.
+Head in where you can find a few interesting things in the first room, but most notably 3 pieces of the Tesham Mutna armor set in the chest Regis initially leans against: the sword, armor, and trousers. Follow Regis down the stairs to another room where you can examine the signs on the walls and pickup a few more interesting objects. In the chest next to Regis are 2 more pieces of armor: the mask and boots. In the next section is the third tribe symbol you can examine to learn more about vampires if you wish, as well as miscellaneous loot in the cells. However, the most important is in the last shelving/hole on the left as you follow Regis. In the chest beside the skeleton is the final piece of armor, the gauntlets. Continue down the hall and it'll cut to a small cutscene before Regis gives you some bait to place around to lure monsters there.
+You'll have to blast away some debris to place two of the lures and once all are set you have to talk to Regis to begin. Prepare for a big fight, during which you'll be surrounded by many necrophages and an odd fleder or katakan. Try to keep your Quen up at all times (tip: meditate until night if you have to, and drink a Superior Tawny Owl), as multiple scurvers and rotfiends will be able to one-shot Geralt as they explode. Especially with Protective Coating, it's best to use Necrophage Oil and simply avoid the vampires. You must keep killing monsters until Regis' bloodlust builds up, but don't worry about more than your immediate safety - 10 kills are enough, then shortly a cutscene will trigger and all the rest will run away.
+When Regis reaches his transformation, Geralt gets the last ingredient and heads back to the cemetery to finish the concoction. You can then talk for a bit before you once more go through a cutscene showing Dettlaff and how he met Count de la Croix and then the latter's death. Then after a short conversation with Regis, your next lead to follow will be the bootblack near Beauclair Port.
+This quest completes here (1,000XP earned based on the Story and Swords! difficulty level) and Where Children Toil, Toys Waste Away will begin. However, note that there's another, secondary quest - Amidst the Mill's Grist - only available until you finish the next main one. You may have recognized its location from the vision.</t>
+  </si>
+  <si>
+    <t>What is a nonhuman? The answer is simple. As the very name suggests, it is something which resembles, and yet nevertheless is not, a human. Though it walks on two legs, speaks a tongue similar to our own and dresses in similar attire, it all the same has more in common with base beast than noble man.
+Dwarves are like moles. They feel best underground and avoid direct sunlight. They like to live in filth, forever smudging themselves in mud and slime. They love everything that can be found within the earth - rocks, metal, minerals of all shape and color. It is also said that, like their kindred moles, they feed most readily on worms, roaches and other nightcrawlers.
+Halflings, for their part, are more reminiscent of gophers. Fat, lazy and loud in that typical rodent way, their minds are filled only with thoughts of food and drink, which they steal from other, nobler beasts and greedily squirrel away in their hovels. They are marked by a cruel craftiness. You could be dying of hunger and they would not share a meal with you. You could be howling from poverty, and they could be swimming in gold, and yet they would still fleece you to the last crown. You could do nothing but good to them, and they would still stab a knife in your back.
+Elves, in turn, seem related to the birds of prey that dwell in far-off Zerrikania. They care most for colored feathers. They would most readily spend all day staring at their reflections in the water and singing their own praises. They are so awash in self-love that they no longer feel any desire towards members of the opposite sex of their own species. Their appearance, unquestionably pleasant to the eye, is highly misleading, for they are extraordinarily cruel and any who judge them by looks alone they first dupe and then kill in cold blood. The best proof of this? The so-called Scoia'tael, bandits that claim to fight for freedom, but in truth only long to kill humans.
+All these vile so-called "elder" races are, to our great fortune, slowly dying out. Joy fills the heart of every right-thinking man at the thought that his great-grandchildren will never know them, that in their day dwarves, halflings and elves will be merely fairy-tale characters used to scare young, impressionable children.</t>
+  </si>
+  <si>
+    <t>Scientist</t>
+  </si>
+  <si>
+    <t>Elves are one of the humanoid races that inhabit the Continent. Forming a major part of the Elder Races (along with dwarves and gnomes), those known as Aen Seidhe came to the Continent on their white ships much earlier than humans, but later than the other Elder Races. They live much longer than humans and are usually very attractive.
+Elves are capable of interbreeding with humans (thus producing half-elves and quarter-elves) and dryads. Though elves are incredibly long lived, only young elves are fertile, thus elven populations tend to reproduce at a slower rate than humans.[2]
+Like other nonhumans, elves are often persecuted by Nordlings. Because of that, many elves were members of the Scoia'tael guerrillas allied with Nilfgaard during the empire's second invasion of the Northern Kingdoms. In return, Emperor Emhyr var Emreis gave the elves a state of their own in Dol Blathanna and made Enid an Gleanna its queen.
+Elves believe that they were created, unlike humans, who evolved. For this reason, some elves consider humans to be little more than hairless apes. Aside from Aen Seidhe, there exists another group of elves called Aen Elle that inhabits another world.
+Halflings or hobbits (Elder Speech: Pherian) are members of a distinct nonhuman race who, despite the name, are not mixed like half-elves.
+Unlike gnomes and dwarves, with whom they share the best relations, halflings do not have a traditional homeland exclusively ruled and inhabited by their kind. Instead, they reside within human territories of the Northern Kingdoms, where they often face prejudice, as well as in the Nilfgaardian Empire and the valleys of Mahakam.
+Dwarves are one of the humanoid races. Together with gnomes and elves they are called the Elder Races, and along with gnomes they were one of the oldest sentient races on the Continent. Dwarves are often excellent soldiers, artisans and businessmen. While they tend to be uncouth, they are also jolly and cheerful.
+The motherland of dwarves is Mahakam. Like other nonhumans, dwarves are often persecuted by Nordlings. Because of that, some dwarves were members of the Scoia'tael guerrilla allied with Nilfgaard during the empire's invasion of the Northern Kingdoms. These dwarves distinguished themselves from their brethren by wearing their beards in plaits.</t>
+  </si>
+  <si>
+    <t>Head to Sigismund's Bathhouse further north in the city and you'll be greeted by a voice telling you to leave. No matter how you answer, a short time later Happen will open the doors for you as Sigi Reuven has agreed to meet you.
+You'll need to change first, so choose any of the wardrobes which will leave you in just a towel. With that, follow Happen through the bathhouse to the private room in the back and open the doors to greet none other than Dijkstra and the other 2 Big Four members: Francis Bedlam and Carlo Varese (Cleaver). Clearly they're not happy with Whoreson Junior. Before you can talk much, a number of Whoreson's henchmen attack, so kill them off before you can continue your talk.
+After a bit of a long discussion, answering how ever you want, you'll be able to talk to Dijkstra in private where the past is brought up for a bit before you can talk about Junior. Dijkstra will eventually point you to 3 locations: a casino, arena, and Junior's house. The conversation will then turn to the current events if you wish to discuss that with him, but otherwise you can exit out of the discussion. Note that you'll need to eventually ask about Dandelion to start the other main quest, Count Reuven's Treasure. Regardless, once you have the information you need on Junior and exit out of the conversation, you'll earn 150 XP earned based on the Story and Swords! difficulty level.
+Visiting the three locations can be completed in any order, and if you want to do the secondary quest The Gangs of Novigrad, you can go and talk to Cleaver.
+Important: if you attack or ask about Whoreson Junior at any time while visiting the arena and casino, you will not be able to use a secret passage later. The same applies if you get Cleaver's help, although a workaround is possible for that in the casino.
+When you arrive at Junior's house, you will find that Cleaver's men have already raided it. You only have to examine 3 "clues" for Geralt to conclude that the place has been scrubbed clean and there's nothing to be learned here.
+Head to the arena, where just south of the entrance you may run into Zdenek being killed by Junior's thugs. You can loot his corpse to find a certificate, and doing so unlocks the option to enter by impersonating him. However, don't do that if you wish to enter by other means as it will fail an objective.
+At the entrance itself, there are two guards with whom you have the following options:
+If you have the certificate, impersonate Zdenek
+Pay them 100  (earning 10XP earned based on the Story and Swords! difficulty level)
+Use Axii (requires Delusion level 2 for a minimum of 35XP earned based on the Story and Swords! difficulty level)
+Threaten them (start a fight)
+You can always enter peacefully and start a fight after, including if you want to do The Gangs of Novigrad here. Eventually you'll have to kill everybody inside anyway, so a direct attack saves time, but going the peaceful route can unlock an additional option later.
+Unless you attacked, you will now have to talk to Igor and pretend to look for work as a bodyguard, or be attacked if you deviate from that plan. He will want to test your skills in the arena and after you agree, it's time to fight for the crowd's entertainment. Your first opponent will be Gustav Roene, who will plead for mercy when beaten. If you spare him he will help you in the remaining fights, but you'll have to face an additional 3 dogs first. Your next opponents will be the "Hairy Brothers" (Skellige warriors), followed by a Wyvern, 2 Endregas (drone and warrior, though identically labeled) and finally a bear named Boris. Once the bear is defeated Whoreson will finally appear, but Cleaver's dwarves storm the arena before you can talk much and Junior orders you killed.
+Regardless of how you played it until now, the rest is the same and you have to kill every last one of Whoreson's men, only your starting position differs. During this, you kill Igor as well, and you have to loot his body for a key, which opens a box next to his "throne". Reading the note you find inside, you now have to search for a stash using your Witcher Senses. You will find it on the bottom level, near the arena, where Geralt will notice dragging marks on the floor. Interact with the torch on the wall there (don't just ignite it) to open the hidden door with the stash inside. Loot the chest to find a mysterious letter and with that, your job at the arena is done.
+Reading the letter reveals that Junior has been working for Radovid and directs you to Dijkstra.
+When you get to the casino, you will have several choices to deal with the guards:
+Propose to make a deal (this will lock out the bribing option when you speak to them again)
+Threaten (this will initiate a fight)
+Pay 200  (earns 20 XP earned based on the Story and Swords! difficulty level)
+Use Axii (requires Delusion level 2 for a minimum of 35XP earned based on the Story and Swords! difficulty level)
+Similarly to the Arena, you can always enter peacefully and attack or call Cleaver's dwarves afterwards if you wish, but going the peaceful route can unlock a secret passage later and you can earn more  by playing Gwent in the meantime.
+If you wish to go the peaceful route, make your way to the second floor and approach the gwent players. You have to beat 2 of them before a cutscene triggers and the dealer invites you to a "high stake room" upstairs. If you refuse his invitation twice, he calls the guards and the fight starts then and there. If you accept, you'll find yourself in an interrogation room and regardless of what you say, the fight just starts there instead.
+Note: here it is possible to lure the last enemy to the top floor and freeze/stun them there so you can walk out and call Cleaver's dwarves. If you wish to do so, agree to go upsairs but DON'T talk to the tied-up halfling in the interrogation room. Once you call the support, enemies inside will respawn and have to be killed all over again, but you get to complete The Gangs of Novigrad.
+As with the arena, the rest plays out the same - you have to kill everybody and only your starting position changes. When all of Junior's men are dead, go to the interrogation room on the top floor, where a tied-up halfling is. Talk to him to learn that Whoreson is working for the Redanians and this directs you to Dijkstra. Note: pursuing this lead to its end will fail the objectives for the other two locations, if not already completed.
+Free the halfling to complete your objective (150XP earned based on the Story and Swords! difficulty level) and he'll promise you a reward from the King of Beggars, starting the secondary quest Honor Among Thieves.
+Regardless of how you learn of Whoreson Junior's connection to the Redanians, you will be redirected to speak to Dijkstra about it. He will in turn direct you to Vernon Roche, who apparently has contacts with the Redanians.
+If you haven't met Roche yet, a small cutscene will play where Hortensio will stop you from entering the hideout. Regardless of your choice here, Roche will walk out and give his permission for Geralt to head inside. After a brief greeting, Ves will also make an appearance before your can talk about Whoreson Junior. Roche will say that he is on his way to meet his contact at Oxenfurt Chess Club, and will have to meet him there. (150XP earned based on the Story and Swords! difficulty level)
+Note: If you haven't yet explored Junior's house, casino or arena, this is your last chance to do so. Once you meet the Redanian contact, these objectives and the The Gangs of Novigrad quest will all fail if not already completed.
+If you leave immediately you can ride along with Roche, but it's easier to just fast travel to Novigrad Gate. Once there, talk to Roche and head for the chess club. As you approach, a cutscene follows and the contact is nowhere to be found, but you meet Radovid instead. After some talk, he will reveal where and how to find Whoreson. Upon leaving, Vernon will ask Geralt for help regarding Ves which starts An Eye for an Eye. (150XP earned based on the Story and Swords! difficulty level)
+When you go to Whoreson's hiding place, there are two guards in front and what happens when you talk to them depends on your choices so far.
+If you haven't asked about Junior or provoked a fight yourself so far, say you're a new guy bringing girls and they'll tell you about the secret passage. With that, go to the marked location and then through a short underground tunnel, which leads you into the cellar of Whoreson's house.
+In any other case, the guards will recognize and attack you. Kill them off and loot a key from one of them to unlock the front door and make your way to the big house right ahead.
+Regardless of how you got in, everyone inside the estate is hostile and you have to slay multiple of Whoreson's men before reaching the second floor of his house. There you will find a gruesome scene and at last, Whoreson Junior inside the room. Geralt can't help but rough him up before "kindly" asking to what happened to Ciri, which starts Ciri's Story: Visiting Junior.
+Once Ciri's story is finished, you can kill or spare Junior before the quest ends and you get 500XP earned based on the Story and Swords! difficulty level regardless of choice. What you do here only changes a little flashback later in the game, but note that you MUST kill him in order to complete all objectives, as you get the "Kill Whoreson Junior." just as you reach the second floor.
+This will also update The Play's the Thing, or start it if you haven't already. While the quest is complete here though, you still have to leave the estate. Even if you did use the secret passage, the grate door back there is locked now, so you have to leave through the front door and still deal with enemies you've avoided before.
+As you exit, several Redanian soldiers approach and take you to Radovid, who wants Geralt to return the favor. This sequence will start and complete A Favor for Radovid, and subsequently start Redania's Most Wanted too.</t>
+  </si>
+  <si>
+    <t>Let it hereby be known that the Bearer of this document is entitled to fight in the ring under the name of Zdenek.</t>
+  </si>
+  <si>
+    <t>Zdenek was an aging champion of fistfighting, considered the world's best boxer throughout Temeria due to never being defeated twice in a row. However, when he went to enter Whoreson Junior's arena in Novigrad in 1272, he was murdered by thugs just outside the arena</t>
+  </si>
+  <si>
+    <t>Go to the Kingfisher Inn and talk to Priscilla. Note: if Now or Never is in progress, the front door will be locked, but you can still get in through the back.
+After different dialogues depending on how much you've talked with her already, the two of you come up with the idea to stage an entirely new play in order to lure Dudu out of hiding. Priscilla is ecstatic and starts writing the script right away, while Geralt's creative input only goes as far as the name and genre. Choose whichever name you like, but the genre predetermines outcomes later.
+If you pick drama, a riot will break out after the play and you'll have to kill people, while comedy will keep the crowd happy and will earn you extra 30 . After the decisions are made, Priscilla instructs Geralt to take the script to Irina Renarde at the nearby theatre and the conversation ends. (300XP earned based on the Story and Swords! difficulty level)
+The door to the theatre is locked though and an annoying ticket seller leaves you no choice but to buy a ticket for 50  (5XP earned based on the Story and Swords! difficulty level), even though there's no play to attend. (You can still find your way in without paying, climbing through the roofs near the entrance located almost exactly in the opposite side). Proceed inside and speak with Irina who is happy to help, but needs ushers and preferably getting The Puffins to advertise the play.
+Make your way to the docks, where you'll find a street fighting ring of sorts and talk to Sofus the Bull. You will have two options:
+Pay him 70  (7XP earned based on the Story and Swords! difficulty level)
+Bet 140  (14XP earned based on the Story and Swords! difficulty level) that you can beat him and Hal in a 2-on-1 fistfight
+The two strongmen will agree to usher regardless, but if you pick the challenge and win, you get your coin back.
+Head to the Puffins' place at The Bits where you'll get treated to a cutscene as you enter. After clearing up a misunderstanding, they inform Geralt that they can't currently work because Fatso's gang has been troubling them. If you solve the problem for them, they'll be happy to publicize the play.
+To find Fatso, follow the marker just a tiny distance nearby and you'll see three bandits bothering someone. Talk to them and after they trash talk Geralt, you'll have 3 options aside from backing out:
+Fight them
+Pay 50  (5XP earned based on the Story and Swords! difficulty level)
+Use Axii (requires Delusion level 2 for a minimum of 35XP earned based on the Story and Swords! difficulty level)
+No matter what you choose though, the issue won't be resolved unless you fight them, as they'll swindle Geralt if paid and Axii doesn't work on the whole group. Note: to earn more XP earned based on the Story and Swords! difficulty level you can pay them first, then back out and talk to them a second time using Axii to start the fight.
+Once the fight starts, you only have to knock one out (it's a sword fight, but they don't die) before the other two are scared off. The Puffins then appear, praising Geralt and happy to do the job for free. At this point, 150XP earned based on the Story and Swords! difficulty level is earned and there are further 25XP earned based on the Story and Swords! difficulty level and 30  awarded when the quest completes.
+Go back and talk to Irina Renarde, with whom you will now choose the cast members. Geralt will play the witcher regardless of what you say, but the choices you make for the princess and doppler can affect the play itself and the rewards at the end of the quest:
+Princess
+Priscilla (25XP earned based on the Story and Swords! difficulty level / 20 )
+Irina Renarde (25XP earned based on the Story and Swords! difficulty level / 10 )
+Doppler
+Abelard Rizza (110XP earned based on the Story and Swords! difficulty level / 30 )
+Maxim Boliere (no rewards; will be drunk for the performance)
+Once you've made your choices, you can start the play immediately or delay so you can learn your lines.
+Talk to Irina again to start the play and you'll now be on stage with timed dialogue choices for your lines in between multiple cutscenes. The more lines you get right, the bigger the reward you get later; 
+During the play, Geralt recognizes Dudu in the crowd and pulls him on stage without blowing his cover, so even if you performed misarably for the play, the mission is a success.
+However, if you chose to write a drama script, there's one more obstacle before you can talk to Dudu, as one of Fatso's thugs screams "Dopplers to the stake!" at the end and starts a riot. You then have to help Zoltan and the ushers in defeating the bandits and other outraged patrons. Unlike the fight to recruit the Puffins, the deaths here are very real. If you chose comedy instead, the thug's mate will calm him down instead.
+Regardless of how it played out, you get 500XP earned based on the Story and Swords! difficulty level here and go backstage to finally reunite with Dudu. During the dialogue, you have the option to make the doppler transform into Ciri for a moment, then Geralt reveals the plan to rescue Dandelion and with some convincing from Zoltan, Dudu reluctantly agrees to impresonate the late Caleb Menge. If you helped Dijkstra recover his treasure, you can then directly agree to meet at the ambush spot or say that you'll ask him for support, but you'll have that option later anyway.
+Afterwards, Irina Renarde will have varying commentary depending on your acting performance and other choices during the quest, then pay you accordingly as well. In addition to all previously mentioned choice rewards, you get 50XP earned based on the Story and Swords! difficulty level (technically for having ushers) and:
+All correct lines: 150XP earned based on the Story and Swords! difficulty level / 50 
+3+ correct lines: 125XP earned based on the Story and Swords! difficulty level / 20 
+At least 1 correct line: 110XP earned based on the Story and Swords! difficulty level
+If you did everything right (comedy, recruit the Puffins, cast Priscilla and Abelard, all correct lines), the sum of all extra rewards here will be 360XP earned based on the Story and Swords! difficulty level / 160 , whereas the least possible is 75XP earned based on the Story and Swords! difficulty level / 10 . The quest then completes, starting A Poet Under Pressure.</t>
+  </si>
+  <si>
+    <t>WITCHER: "To slay beasts most foul - 'twas for this I was made, I kill as my calling, not just to get paid." - threatening or cheerful, bold[1]
+WITCHER: "Perhaps 'midst the guests he hides, in fear?" - suspicious or intense, lively[1]
+WITCHER: "Seems men's hearts can love for changelings foster!" - astonished or joyful[1]
+WITCHER: "But a heart that is base, such as in this knave aches!" - disgusted
+WITCHER: "No monster is he whose shape can shift." - ceremonial</t>
+  </si>
+  <si>
+    <t>A witcher (Polish: wiedźmin), also known as a wiccan, hexer, vedymin, or witchman (Elder Speech: vatt'ghern), is someone who has undergone extensive training, ruthless mental and physical conditioning, and mysterious rituals (which take place at "witcher schools" such as Kaer Morhen) in preparation for becoming an itinerant monster slayer for hire. Geralt, the central character in Andrzej Sapkowski's Witcher series and the subsequent games inspired by them, is said in the stories to be one of the greatest witchers; he is certainly legendary, but whether famous or infamous is more open to interpretation (and/or subject to gameplay, as the case may be).</t>
+  </si>
+  <si>
+    <t>I am charting a direct course for the spot where we commenced our study, the ruins of Castle Tuirseach. As I travel I have been marking the additional locations with the bear symbol which I have discovered.  [written in an unsteady hand] He's still following me!</t>
+  </si>
+  <si>
+    <t>Ibrahim Savi was an assistant professor at the Faculty of Natural History at the Oxenfurt Academy. He belonged to the research group mobilized by Professor Slavko Atimstein investigating the traces of witchers from three different schools. Ibrahim was assigned to research the School of the Bear.</t>
+  </si>
+  <si>
+    <t>Description of map to Castle Tuirseach by Ibrahim Savi.</t>
+  </si>
+  <si>
+    <t>As Yennefer of Vengerberg told it, there had been a magic explosion in Skellige. Related to Ciri's reapperance, it had destroyed a vast swath of forest. Gerlat set out for the Isles to join the sorceress and seek further clues of Ciri's whereabouts. The druid Ermion, however, had no intention of letting Yennefer examine the woods. So Geralt and Yen sought out Jarl Crach an Craite, who helped break down the druid's resolve.</t>
+  </si>
+  <si>
+    <t>As it turned out Yennefer had learned from the emperor that Ciri had returned to this world and that the Wild Hunt was pursuing her. After Geralt's audience, Yennefer explained that she had been using all manner of spells and rituals to try and track Ciri, only to alert the Hunt to her efforts. Therefore, she decided to rely on more conventional methods by turning to the best tracker she knows. She agreed along with Geralt to search for Ciri. She decided that he would search Velen and Novigrad for her whilst deciding to investigate Skellige herself.
+Geralt later rendezvoused with Yennefer in Skellige during King Bran Tuirseach's funeral, where she explained that she suspected Ciri to be behind a cataclysm on the eastern end of Ard Skellig but Ermion, another of Ciri's tutors, refused to let her access the site, until they spoke with Crach an Craite. Afterwards, Yennefer and Geralt attended a wake at Kaer Trolde, where they stole the Mask of Uroboros, which possessed the ability to see the past events of the place it is viewed it. Upon arriving at the devastated area, they were confronted by Ermion, who warned them that it could only be used once and that using it will bring a cataclysm upon Skellige. As Geralt argued with Ermion, Yennefer went deeper into the devastated area and activated the mask, which caused a storm. Geralt ran to Yennefer and, using the mask's power, they found a place in the area where the elven mage had disintegrated a member of the Wild Hunt, then opened a portal and fled with Ciri. Ermion arrived soon after, and the two told him what they have found out. Ermion revealed to them that the Wild Hunt was recently seen on Hindarsfjall, so Geralt and Yennefer went there to investigate.
+Upon arriving to Hindarsfjall they went to the village of Lofoten, where the women were performing a ritual. Yennefer and Geralt interrupted them and asked about the Wild Hunt and Ciri. They were told that Ciri has been in the village, and that she was seen with a man they referred to as Craven. The two of them were in the stables right before the Wild Hunt arrived and attacked the village, killing many of its inhabitants. When asked about Craven, the women said that he went to the sacred garden near the village to defeat Morkvarg, some time after the incident, so Yennefer and Geralt went there to find him. In the garden, they found a body, and Yennefer decided to use necromancy to make it speak.
+The man's real name was Skjall. From what the body said, they learned that Ciri left with the elven mage on a boat as they were being chased by the Wild Hunt. Later on, Uma arrived on the same beach. After hearing the whole story, Yennefer forced the body to go back to its dead form. Yennefer's usage of necromancy drained all the magical power from the sacred garden, which the villagers of Lofoten didn't take lightly, and they blamed Yennefer and Geralt for not respecting their customs and beliefs. Still, Yennefer didn't care much about villagers' opinions, and she and Geralt ignored their claims. After leaving the garden, Yennefer asked Geralt to meet with her in Larvik, another village on Hindarsfjall, if he wanted to help her with something.</t>
+  </si>
+  <si>
+    <t>Magic Explosion in Skellige probabnly connected with Ciri. Gerlat joining Yennefer. Druid obstruction to examine forest. She seeks for help from jarl.</t>
+  </si>
+  <si>
+    <t>On Hindarsfjall Geralt and Yen learned that Ciri had returned to the Isles. She'd rejoined her friend, the masked mage. They had boarded a boat and sailed off in an unknown direction. The boat had returned, one passenger on board – a creature as mindless as it was hideous.</t>
+  </si>
+  <si>
+    <t>Geralt and Yennfer finds out that Ciri return to Isles and meet masked mage. They sailed to unknown direction. Their boat return with a mindless creature inside.</t>
+  </si>
+  <si>
+    <t>The Mysterious elf and an unconcious Ciri appear on Skellige, with Skjall being witness to the event. The Mysterious elf will ask for his help and then tell Ciri where they will meet next before he departs. Ciri will now awake and start talking with Skjall. If Ciri asks how long was she out, the conversation can take a turn where Ciri asks Skjall if he stripped her, which he admits doing but declines being the one to rub blubber on her breasts stating that it was his mother and sister who did that. After asking for help with standing up Astrid will join in and ask Ciri to join her in the sauna. Ciri will prefer to leave as soon as possible, however Skjall will tell her she will need a horse to reach Drowned Dead Rock so he will get one ready while she accepts the offer.
+Follow Astrid and after reaching the sauna she will ask Ciri to strip, so enter the room and interact with the mirror inside to do just that. If you are worried about nudity, note that Ciri will still have her chest in bandages and she will be wearing her underwear. You can choose to wear a towel, however that will only result in Ciri explaining why she is such a shy Nordling girl. If however she goes "naked" she will be asked about her tattoo. Regardless what you prefer now choose the option to go to the sauna. After more chit-chat you will have the option to go take a short dip if you want to. Doing so will regenerate Ciri's health bar, and you can also drink a shot of Freya's Firewater which will do the same; if both are done her health bar will become full. Now go back to dressing room and get her dressed again.
+Proceed to the stables, where Skjall will be getting the horses ready and you will have the option to return Skjall's advances on Ciri by having her kiss him, or tell him you wish to leave as soon as possible. Regardless, the Wild Hunt attacks soon after and we all know how it all ends for him.
+Now you will be fighting the Wild Hunt. It's not possible to kill all enemies as more will spawn infinitely, but you do have to kill a good amount before the quest updates. Take advantage of the Blink ability and be patient. Eventually, Skjall will tell you to make a run for it. Go to the stables, where he will offer to lead you to Drowned Dead Rock, so follow his lead. When you reach your destination you will see a cutscene and the quest ends, returning back to Geralt and Yennefer.
+After finishing The Calm Before the Storm, Geralt and Yennefer decide to look into what happened to the ugly creature that Skjall saw but the only information one has is that Jarl Donar had him.
+Make your way to Larvik, which is just on the other side of the small island from Freya's Garden, and talk to Donar to find out what happened. Unfortunately, Donar doesn't have much else to tell you other than the fact that he sold the creature to a merchant, who wanted to sell him off as a court jester, and thus headed off to Novigrad. The quest will then conclude here.</t>
+  </si>
+  <si>
+    <t>Geralt found Ciri at last – on the Isle of Mists, where the elven mage had concealed her. There was no time to rejoice, for the Wild Hunt descended on them. They fled, Ciri teleporting them to Kaer Morhen, where their friends awaited. The Wild Hunt arrived at Kaer Morhen soon after. A great battle ensued, and the fortress' defenders might all have perished had Ciri not demonstrated her powers. So sudden and violent was her outburst that the Wild Hunt was forced to withdraw. The battle was won, the war had barely started.</t>
+  </si>
+  <si>
+    <t>Geralt found Ciri, they teleported to Kaer Morhen. Then the Wild Hunt attacked Kaer Morhen, but defenders won this battle.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After you're all done and in front of the door, the dwarves will come out. However, they tell Geralt that Ciri is laying cold inside and the spirit has left her. A cutscene starts as they head for the boat and Geralt goes in to find her lifeless body. Devastated, he hugs her one last time, but as he does this, the firefly comes in and into Ciri, waking her and she embraces him back. You can then have a long conversation with her, recapping most of her story so far plus some tales of her travels between worlds. Feel free to talk about everything, despite being pushed for time by the Wild Hunt, everything is scripted.
+When done, the two head to join the dwarves at the beach, only to see them sailing away in your boat. The Wild Hunt then appears and Geralt urges Ciri to teleport them home. Another long cutscene follows with Ciri and Geralt appearing at Kaer Morhen. First Vesemir, then Yennefer and finally Triss come to greet you and after all dialogues are over the quest ends. (4,000XP earned based on the Story and Swords! difficulty level)
+The quest starts immediately after The Isle of Mists, after you are greeted by Vesemir, Yennefer and Triss. When you finish your conversations with them, the two sorceresses will walk towards the keep, but following them is entirely optional and you are free to roam until you join them for the council. However, fast travelling is disabled, so you can only do some side quests in the Kaer Morhen valley and would have to do so on foot, as calling Roach is also disabled.
+If you've gathered all possible allies, which means getting all green marks on the "Brothers in Arms" quests and only Letho doesn't count towards this, an extra 1,000XP earned based on the Story and Swords! difficulty level will be awarded. This should include completing Now or Never, even though Triss will always join - if her questline isn't completed, she will explicitly say that it was Yennefer who invited her and Geralt should thank her.
+On your way to the council, you can have short conversations with every ally except the sorceresses. Most of them are of course optional recruits, but here are all of them in a linear fashion of appearance:
+Hjalmar is seen first and will have Folan and/or Vigi the Loon with him, if you saved them during The Lord of Undvik.
+Zoltan Chivay is providing armorer services. He's only an Amateur armorer though, so that's mostly useful just for repairs and selling junk equipment you may've picked up.
+Ermion can be seen together with Vesemir, opening cracks in the ground. If you wait for them to finish, they can be interacted with for some extra dialogue.
+Lambert is trying to repair the ballista in the middle courtyard and Eskel is meditating just a bit further ahead.
+Vernon Roche and Ves are training in the inner courtyard.
+Letho, if alive and recruited, can make his appearance in two different ways. If Roche and Ves are there, he'll appear while you're talking to them, otherwise Lambert and Eskel will be in their spot as Letho walks around. In both cases, your other allies will be furious that you brought him, but it's just dialogue with no real consequences.
+Ciri can also be talked to, next to the pendulum where you also first see her at the start of the game.
+Keira Metz can be found just inside the keep and you can use The Eye of Nehaleni to try and dispell her illusionary dresser for a comic reaction. After talking to her, you can have another, regular conversation with her, allowing to use her as an alchemist.
+Once you begin, after some introductory dialogue you'll have to make a couple of choices. First is how to use the laboratory:
+Make more potions and you'll later receive 50XP earned based on the Story and Swords! difficulty level, Superior Swallow, Thunderbolt and a Lesser Perun runestone
+Make witcher's traps, in which case some of them will be spread in the courtyard and explode as enemies tread on them
+Then how to use the workshop tools:
+Patch up the walls, which will close Savolla's breach and you'll face fewer enemies during the battle
+Clear the armory and you'll later receive the Rose of Shaerrawed silver sword
+You will have the option to change those decisions before you move on to the next topic, then everyone else explains what they bring into the battle before Vesemir summarizes everything, ending the meeting. (500XP earned based on the Story and Swords! difficulty level) In the next cutscene, Lambert will give you any previously chosen "rewards" and goes to prepare your horses.
+Talk to Ciri if you wish (she can be seen sullenly leaning against a table annoyed at being told to stay inside (Geralt's responses do not make a difference), but she ultimately ends the conversation with a warm hug for Geralt before beginning to do some sword exercises. You can also loot some new crates with herbs and one with a formula and a diagram (the latter being useless right now as Zoltan is inaccessible), but more importantly two barrels will have ready-made White Gull, allowing to make more alchemy products at the last minute. There is also an armor table and grindstone for buffing armor and weapons (but be sure to visit them after talking to Ciri - see Bugs, below).
+When you're ready, head out to join Lambert and as you exit the keep, a cutscene starts and the battle will begin. Note that none of the enemies ahead will give XP earned based on the Story and Swords! difficulty level, so there's no point in trying to farm them. Also, take note that manual saving is disabled once Geralt approaches the doorway and for the duration of the battle (though automatic checkpoint saving still takes place)
+When it begins, you'll be in the woods with Lambert and if he's present, Letho too. You have to close 3 portals through which the Wild Hunt soldiers are teleporting in, as well as defeat the handful of enemies near each portal. If you paid attention you will know you have 2 options - throw Dimeritium bombs or cast the Yrden sign on them.
+The best approach before engaging the enemies is to walk into the portals and cast Yrden, saving the bombs for later and preventing more enemies from teleporting in. It's not a big deal if you lose the invisibility before that, but don't walk too close to the hounds if you want to avoid it happening. If you close the first two portals and kill the enemies quickly enough, there is time to loot the bodies for some uncommon goods (this opportunity is not available after the closing the last portal, however).
+When all three portals are closed you receive 200XP earned based on the Story and Swords! difficulty level and then follows a cutscene with Imlerith appearing and the next phase begins. (500XP earned based on the Story and Swords! difficulty level)
+You'll now be playing as Ciri and will have to help Triss (before this, however, there will be a timed response moment with Vesemir, but it doesn't seem to matter what response is chosen). Ciri has the option to use a magic amulet in order to direct Triss' fireballs; take care though as they will damage Ciri as well, so blink away once you use the amulet. Ciri can now also use her Charge attack, making her charge through her enemies, dealing high damage and stunning them. The longer you hold the key the higher the damage she will deal. Follow the wall of the keep to reach Triss and after you kill all enemies around her you will return to Geralt and his team.
+After the cutscenes, Geralt will be on Roach now and will have to return to the keep as soon as possible. The raining fireballs can actually hurt you, or even one-shot kill with a direct hit (despite Lambert's comments), but don't worry about them and simply gallop. (This is an automatically saved checkpoint if Geralt is unlucky in his timing). After reaching the keep, you will have to close the main gate. If Ermion has been recruited, you will have gas deposits you can ignite with Igni. Kill the immediate group of enemies if you wish (you may have no choice because climbing is disabled when Geralt is in combat mode), but don't bother with any more as they will spawn infinitely from the gate. Once you are able to, climb the wall (or follow the marked path if Geralt will not exit combat mode, a known bug), reach the lever, and pull it to close the gate. If you stay and attract more enemies, they'll prevent you from climbing the shortcut and you'll have to run a long way around.
+Lambert will be surrounded by enemies and need help. If Keira was recruited, she will automatically intervene and save him, but otherwise you have to run to his aid. If that's the case, do not run the walls, but drop down as quickly as you can and kill the enemies before they can kill him.
+With Yennefer's spell waning and the White Frost advancing, Geralt has to retreat to the middle courtyard to get shelter. Run for it and don't try to loot corpses or the frost will kill you. After you reach the first gate (500XP earned based on the Story and Swords! difficulty level), kill all enemies you see and move for the second gate, where unfortunately Eskel will be in trouble and unable to open it. While the issue is being resolved, you have to help Triss instead. Kill enough enemies near her to trigger the next cutscene. There is a sense of urgency here, but nothing happens if you take your time, so don't worry.
+Eskel is fighting Caranthir and it's not going well, so Ciri jumps in to help. Eventually Caranthir retreats and you will be playing as Ciri again. Help Eskel kill the rest of the Wild Hunt around and then run to open the gate. Keep killing everyone you encounter if you must and then use the wheel to open the gate. It can be tricky to interact with, but don't panic - the objective marker isn't wrong. When you do, you'll be back to Geralt.
+This part is exceptionally easy with many allies around and there is no time limit or penalties if you tarry.
+Like in the woods, you have to use Dimeritium bombs or Yrden to close the portals, but this time you can pick up more bombs from crates. You will have the optional objective to pick up more Dimeritium bombs if you are all out.
+The Wild Hunt breaches in, freezing almost everyone including Geralt. Only Vesemir manages to protect Ciri for a short spell, but he too is eventually restrained by Imlerith.
+Ciri scream at Kaer Morhen
+Ciri's deadly scream
+Eredin will finally appear and convinces Ciri to give up. When all seems lost, Vesemir stabs Imlerith with a dagger in a desperate last effort, but only gets himself killed for it. This causes Ciri to give in to despair and let her power run wild with a deadly scream that decimates the Wild Hunt. Realizing the battle is lost, Caranthir creates a portal for the surviving warriors to retreat through. Eredin, hellbent on capturing Ciri, tries to grab her but is almost consumed by her burst of power until he is literally dragged into the portal by Caranthir. Ciri's out of control powers now endanger her own allies, but fortunately Avallac'h appears and manages to incapacitate her. (1,000 XP earned based on the Story and Swords! difficulty level)
+Geralt and the rest will thaw out and after the sad reality hits him, he will have a short talk with Ciri. You can pick whichever dialogue options you like and then the funeral for Vesemir and possibly Lambert begins. During it, Ciri will decide she has been running away for too long and takes Vesemir's wolf medalion before the quest ends and Blood on the Battlefield starts.
+</t>
+  </si>
+  <si>
+    <t>Ge'els had been a loyal subject of the Alder Folk's previous king. When he learned Eredin was a regicide, he agreed to help defeat the usurper.</t>
+  </si>
+  <si>
+    <t>Convincing Ge'els to betray Eredin because he is regicide.</t>
+  </si>
+  <si>
+    <t>To start the quest, talk to Avallac'h about what you did on Bald Mountain. He will inform Geralt that his victory over Imlerith made him believe that they may have a chance at victory after all. He has a plan about one of Eredin's two remaining generals, Ge'els. Eredin had poisoned their former King Auberon Muircetach, to whom Ge'els was loyal and therefore could be convinced to withdraw his support. But of course, you need to find him first, by travelling with Avallac'h to the Aen Elle's capital Tir ná Lia.
+After everything is explained, you'll have the option to go immediately or meet later, near the location of a portal to another world. It happens to be in the basement of the house where you previously met Sarah and Corinne Tilly. Once there, destroy the wall if you haven't previously and approach the portal.
+After entering the portal you will appear in a desert world. Follow Avallac'h to your destination and on the way he will explain that you're walking on a the bottom of a former ocean, which used to be a live being itself. There are also a few tree stumps that you can loot on the way, not detectable using Witcher Senses. Eventually you reach next portal, but you must wait for it to open and you've awakened Sandcrabs that you now have to kill. They will spawn infinitely, but the portal will open after the first wave, so jump in when it does and you will move to the next world.
+Geralt will be separated from Avallac'h and will have to find the next portal himself. After walking down some stairs you will soon see the next portal and an Aard Place of power. Important: This is your only chance to get it so don't leave without it.
+There will be poisonous fumes all around that will choke Geralt to death and Golden Oriole won't help here. You will have to run through them fast and take breaks on higher ground. After passing 2 poisoned areas you should reach the Place of power, around the corner to the right. From there move north, which is opposite of the direction to the portal, but the safe areas form a kind of a maze and you can't go straight for it.
+Reach the lower ground, then pass another poisoned field and look to your left. You will see rocks that look like pillars, another poisoned field and higher ground that you need to reach. Now move in the direction of the portal past the next field and you will be able to climb much higher. You'll know you are in the right place as there will be a huge skeleton in the next field when you reach the top. Run through it to reach the next safe spot and the portal should be within your reach. Just pass one last field and you will reach it.
+When you enter the portal, you'll be underwater in what looks like elven ruins. The next portal is very close ahead and there's no challenge in reaching it. If you want to get the 4 minor loot containers though, you may want to use Killer Whale - there's one immediately behind where Geralt spawns, two to the far left and one immediately next to the portal.
+When you arrive, Geralt will remark how cold it is and after a short walk will find an ice wall that needs to be broken with Aard, Igni, or a hit from a sword. While outside in the blizzard and not in cover, Geralt will be freezing and take continuous damage from the Snowstorm status effect that also prevents continous recovery of health from sources such as Swallow and eating food. The intended way to pass this section is to sprint from cover to cover and use campfires, stoves, and other sources of flame to recover health. Yes, lit fires here actually restore health.
+The Quen sign helps a bit by providing a second or two of safety from the snowstorm before breaking, but if cast when Geralt is already freezing, it will break instantly.
+Troll decoction is the best potion to recover vitality when sheltering in buildings etc. Take care not to stray past the very edges of the town, though, as the snowstorm will intensify and kill Geralt almost instantly.
+After just a couple of shelter locations, it may look like the next run is too challenging, but simply sliding down some distance will trigger a cutscene with Geralt exiting a house. The same thing happens if you manage to approach the front of the house from another direction. He will see an active lighthouse and remark that's probably where Avallac'h is. On the way to the lighthouse, you'll find containers of random loot, as well as notes and writings from travellers and prior inhabitants of the town, namely Traveler's notes, Anna's notes, and Ervyl's diary. In the lighthouse itself, a city secretary's diary can be found.
+Depending on how you proceed to the lighthouse, you may encounter Hounds of the Wild Hunt along the way - two while inside a barn-like building if you decide to enter it, and three more in a clearing south-west of the lighthouse, surrounded by five lit braziers. (Inside the five lit braziers square area, you are not affected by the snowstorm effects). They won't appear before you're in the right spots, but the second group is more easily avoidable.
+To proceed, you need to enter a chamber below the lighthouse, the entrance to which is located on the south-west side of the stone platform the lighthouse stands on. Inside you find Avallac'h warming himself by a fire and you can converse with him about various topics before the next portal opens. Among other things, Avallac'h will reveal that the frozen world they're in is the Ice Plains where Geralt previously fought Eredin's reflection. Once you've talked enough, end the conversation (500XP earned based on the Story and Swords! difficulty level) and walk through the portal that appears.
+At last you reach Tir ná Lia. Follow Avallac'h to find Ge'els. Along the way, you can pick up a report regarding the advance of the White Frost, sitting on a bench next to a fountain (there's no other loot in the entire place). When you reach Ge'els, he will be painting an elf girl in a Picassoesque style. A short conversation will ensue, during which Avallac'h convinces him to go with you and though an oneiromancer, witness the dream of Eredin poisoning their former king.
+You then appear back in Novigrad, with Ciri around and Corinne Tilly to facilitate the dreaming. After witnessing the dream, Ge'els will tell you how to lure Eredin using the Sunstone and decides to withhold reinforcements for the Naglfar when the battle starts. Avallac'h then helps Ge'els return to Tir ná Lia and the quest ends after the Sage returns during a conversation with Ciri.</t>
+  </si>
+  <si>
+    <t>Triss could not help Geralt. Yet she did direct him to Corinne Tilly – an oneiromancer and an expert at finding the lost and the missing. Guided by Corinne Tilly, the witcher had a dream. In it, Ciri and I, the bard Dandelion, were reunited. Geralt now knew that to find Ciri he would first need to find his dear old friend.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head to the house where, before you can enter, the new owner, Rudolf de Jonkheer, will greet you. You can ask him more about the house but ultimately he'll let you go in seeing as you're a witcher and might help with whatever is haunting the house.
+Upon entering you'll hear laughter and the sound of footsteps and, as you start to head upstairs, you'll hear Corinne in distress. Head up and you'll see a godling, Sarah, standing over the sleeping oneiromancer. After a short cutscene, it's clear Corinne is under a sleeping spell and won't wake up normally. However, she does gives you 2 clues: the doll and the attic. With that, head up to the attic (the door opposite the bed) and climb up the ladder. Use Aard on the blocked doorway, then enter to find the rag doll and the drawing of a crib here. If you already explored the house, Geralt will comment he knows where the cradle is, but regardless, just head back down to the room Corinne is in and, in the only other room off of the bedroom, you'll find the cradle.
+After you place the doll here, the door will close, with a drawing on the back of it. After interacting with it, go find the oven, which is all the way down in the cellar (the trapdoor is on the first floor right next to the stairs). Note that while there's a weakened wall here, you don't need to go past it for this quest. Interacting with the oven will cause another cutscene, this time formally meeting Sarah, who'll reveal she was just having fun and sees the place as her home and was just trying to get the banker to leave. You can answer however you like in the first part, but in the second choice, you have to decide to either make a deal with her (allowing her to stay) or force her to leave.
+If you wish to let the godling stay, agree to make a deal with her, and she'll let the dreamer wake up so you can talk to her. Doing this will eventually see Rudolf sell the house to some "poor fool" and will give access to the secondary quest, Haunted House.
+If you wish to make the godling leave, you'll need burdock. If you haven't already bought it, head to the herbalist across the canal (you can talk to Rudolf as you head off to get it, but the conversation doesn't yield much). When ready, place the herb on the oven, stand back, then use Igni. Sarah will throw some insults at you but relents and leaves.
+Regardless how you dealt with Sarah, head back upstairs to Corinne. After talking with her, she'll agree to help you and asks that you meet her at her room at the Golden Sturgeon. With that, leave the house only for Rudolf to stop you to ask about the haunting, as Corinne didn't tell him what happened. No matter how you dealt with Sarah and if you tell the banker the truth or not, Rudolf will ultimately decide to sell the house and asks that you visit in a week or so as he'll give you a percentage of the commission when he sells the place.
+Enter the Golden Sturgeon and head upstairs to talk with Corinne. She'll ask that you answer some questions truthfully to better help you. While there are a lot of options to give, you only need to answer one; the rest will just give background on the relationship between Geralt and Ciri. She'll then ask about Ciri's abilities, and you can again answer however you wish, before Corinne finally asks who you think Ciri would have gone to. Either choice will then go to a cutscene showing Dandelion, a swallow, and an explosion. Afterwards, Corinne will mention that the bard had inherited a brothel, The Rosemary and Thyme. </t>
+  </si>
+  <si>
+    <t>Triss direct Geralt to Corinne Tilly. She had a dream aboit Ciri and Dandelion meeting. Geralt decide to find Dandelion.</t>
+  </si>
+  <si>
+    <t>The King of the Wild Hunt sailed aboard the Naglfar, a giant longship that traveled between worlds. As Ge'els had advised, the witcher set out to find the Sunstone – an artifact needed to draw Eredin into a trap.</t>
+  </si>
+  <si>
+    <t>At last you reach Tir ná Lia. Follow Avallac'h to find Ge'els. Along the way, you can pick up a report regarding the advance of the White Frost, sitting on a bench next to a fountain (there's no other loot in the entire place). When you reach Ge'els, he will be painting an elf girl in a Picassoesque style. A short conversation will ensue, during which Avallac'h convinces him to go with you and though an oneiromancer, witness the dream of Eredin poisoning their former king.
+You then appear back in Novigrad, with Ciri around and Corinne Tilly to facilitate the dreaming. After witnessing the dream, Ge'els will tell you how to lure Eredin using the Sunstone and decides to withhold reinforcements for the Naglfar when the battle starts. Avallac'h then helps Ge'els return to Tir ná Lia and the quest ends after the Sage returns during a conversation with Ciri.</t>
+  </si>
+  <si>
+    <t>Eredin sailed on the Naglfar. Following Ge'els' advice, the witcher to find Sunstone.</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Write a book page about:</t>
+  </si>
+  <si>
+    <t>Metting a vampire called Regis, who saved his life. He shared with him some informations about vampires.</t>
+  </si>
+  <si>
+    <t>Geralt never expected to be saved by a vampire, least of all one as peculiar as Regis. The witcher awoke in a cave, wounds freshly bandaged, the metallic scent of blood lingering in the air. A figure sat nearby, silhouetted against the faint glow of a lantern—tall, composed, with an air of practiced calm.
+"You're awake," the figure said, his voice smooth as silk. "I was beginning to worry."
+Regis introduced himself, revealing his true nature without hesitation—a higher vampire, not bound by the sun or simple mortal cravings. Unlike the lesser beasts Geralt had hunted, Regis was eloquent and thoughtful, possessing a depth that defied his monstrous lineage.
+Curiosity overrode caution. As they shared a flask of herbal brew—Regis’s own concoction—the vampire spoke of his kind. He explained that not all vampires were bloodthirsty fiends. Higher vampires like himself lived far longer than humans could fathom, and most cherished knowledge, culture, and restraint. While lesser vampires could be driven by primal hunger, his kin could choose when and if they fed.
+Geralt listened, skeptical yet intrigued. Regis elaborated on the vampire society—ancient, complex, and largely detached from human affairs. Despite their power, higher vampires rarely interfered, content to watch from the shadows.
+When Geralt finally asked why Regis had saved him, the vampire smiled faintly. "Consider it repayment for centuries of my kind being misunderstood," he replied. "Besides, not all monsters are heartless, witcher."
+As dawn approached, Regis offered one final piece of advice: not every beast with fangs deserved the blade. Sometimes, understanding was the sharpest weapon of all.</t>
+  </si>
+  <si>
+    <t>Redanian administration letter of safe conduct  by Pontar</t>
+  </si>
+  <si>
+    <t>Redanian Royal Administration
+Pontar Border Authority
+Letter of Safe Conduct
+Issued under the authority of His Majesty, King Radovid V, Sovereign of Redania.
+Let it be known that the bearer of this document, ___________________, is granted safe and unrestricted passage across the Pontar River and through all border posts and crossings within the jurisdiction of the Redanian Crown.
+This safe conduct specifically permits travel for the purpose of ___________________, and the bearer shall not be hindered, detained, or subjected to undue inspection by Redanian guards or officials. Any attempt to contravene this decree will be considered a violation of royal authority and punishable under Redanian law.
+This letter remains valid until ___________________, and must be presented upon request at any border checkpoint or patrol.
+Issued at: ___________________
+Date: ___________________
+Signature: ___________________
+Seal of the Pontar Border Authority
+By command of His Royal Majesty, King Radovid V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write book page about: </t>
+  </si>
+  <si>
+    <t>Elder races</t>
+  </si>
+  <si>
+    <t>Chapter VII: The Elder Races of the Continent
+The Continent, a vast and unforgiving land, is home not only to humans but to a multitude of other races collectively known as the Elder Races. These ancient peoples existed long before humans crossed the seas, shaping the world through their cultures, magic, and craftsmanship. Among them, four races stand out as the most prominent: Elves, Dwarves, Gnomes, and Halflings.
+Elves:
+Graceful and immortal, elves were the first to establish great civilizations on the Continent. Their cities, woven into the natural world, boast elegant spires and seamless integration with forests and mountains. Skilled in both magic and archery, elves view time differently from humans, their lives unfolding slowly across centuries. Once the dominant race, they are now reduced to scattered enclaves and wandering bands, driven to the margins by human expansion and brutal wars. Despite their decline, elven pride endures, as does their love of music, poetry, and lore.
+Dwarves:
+Short, stout, and immensely resilient, dwarves have long been masters of the forge and the mine. Their strongholds, carved into mountain hearts, are feats of both engineering and artistry. Renowned for their craft, dwarven weapons and armor are sought after across the known world. Practical and blunt, dwarves value loyalty and brotherhood, often forming tight-knit clans. Though once hostile to human encroachment, many now coexist, especially in cities like Novigrad and Oxenfurt, where dwarven blacksmiths and warriors are common sights.
+Gnomes:
+The oldest of the Elder Races, gnomes are diminutive but fiercely intelligent. Their knack for invention rivals even that of dwarves, and they are often credited with teaching humans mining and metallurgy. Preferring seclusion, gnomes live in small, well-hidden communities, mostly in the Mahakam Mountains. While not as openly involved in political struggles, their craftsmanship and knowledge continue to influence the world. Gnomes rarely engage in warfare, yet their traps and mechanical devices are famed for their precision and deadly efficiency.
+Halflings:
+Friendly and unassuming, halflings are the most integrated of the Elder Races within human society. Typically found in peaceful villages or bustling marketplaces, they are skilled farmers, cooks, and traders. Halflings prefer a simple, comfortable life, far from war and conflict. Known for their hospitality and love of good food, they are sometimes overlooked as mere peasants. However, their quick wit and uncanny ability to blend in make them adept at surviving even in hostile regions.
+A Legacy of Struggle:
+The Elder Races have endured countless hardships since the arrival of humans. Their numbers dwindle, and their ancient customs fade. Yet, they persist, holding onto their traditions with a fierce determination. While some, like the elves, choose rebellion, others, like the dwarves and halflings, adapt and coexist. Together, they form a tapestry of cultures often at odds with one another, yet bound by their shared history as the first children of the Continent.</t>
+  </si>
+  <si>
+    <t>Cretificate that allows to fight on Junior's arena as Zdenek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write </t>
+  </si>
+  <si>
+    <t>Official Certificate of Combat Entry
+Issued by the Arena Master, Oxenfurt Fighting Pits
+Authorization to Fight in Junior’s Arena
+This document certifies that the bearer, Zdenek, is officially recognized and granted permission to participate in all combat events held within Junior’s Arena.
+By the authority vested in the Arena Master and in accordance with the rules established by Cyprian Wiley, known as "Horson Junior", this certificate guarantees:
+Unrestricted Access: Zdenek may enter the arena grounds without hindrance.
+Right to Combat: Zdenek is permitted to engage in organized fights against designated opponents.
+Entitlement to Winnings: Upon victory, Zdenek will receive the agreed-upon share of the prize money.
+Protection from Interference: Any disruption to Zdenek’s participation will be treated as a breach of arena regulations.
+This certificate is valid until revoked by the Arena Master or Horson Junior himself. Zdenek is expected to adhere to the rules of combat and maintain the reputation of the arena.
+Issued on: ___________________
+Signature of Arena Master: ___________________
+Official Seal of Junior’s Arena</t>
+  </si>
+  <si>
+    <t>Dear Geralt,
+Priscilla has finally finished the script for the play, and your lines are ready. She put a lot of thought into making sure they sound just like you—short, blunt, and straight to the point. There’s even a bit of dry humor sprinkled in, just how you like it.
+Here are a few of your key lines to practice:
+(When asked about his purpose)
+"Hunting monsters. Not much else to it."
+(Responding to a noblewoman’s flirtation)
+"Pretty words. But I’ve heard prettier lies."
+(When questioned about destiny)
+"Never cared much for fate. Prefer a steel blade and a sharp mind."
+(Reflecting on past choices)
+"Regret’s a weight. Better to carry swords."
+Priscilla insists you focus on delivering them with that signature stoic charm. She says it’ll make the crowd love—or fear—you even more.
+Rehearsal’s tomorrow at dusk at the Rosemary and Thyme. Try not to scare the audience too much.
+– Dandelion</t>
+  </si>
+  <si>
+    <t>A note for Geralt with his lines for the play, which was written by Priscilla.</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Map to Castle Tuirseach
+Drawn and Annotated by Ibrahim Savi, Renowned Cartographer
+This meticulously crafted map guides the weary traveler to the ancient and formidable Castle Tuirseach, home to Clan Tuirseach, rulers of the unforgiving isle of An Skellig. The castle looms atop a jagged cliffside, defying both time and tempest.
+Directions:
+Begin your journey from Kaer Trolde Harbor. Follow the rugged coastal path northward, keeping the roar of the sea on your left.
+The path soon forks near the stone marker of Jarl Torold. Take the right path, ascending through the pine-clad slope.
+As the forest clears, the narrow ridge known as “Warrior’s Walk” will appear. Tread cautiously here, for the wind howls and the footing is treacherous.
+Once across, the ancient watchtower will come into view. Pass through its crumbling archway to enter the final ascent—a winding, uneven stair carved into the rock itself.
+At the summit, the great gates of Castle Tuirseach await, guarded by carved stone bears, the symbols of Clan Tuirseach’s strength and endurance.
+Traveler’s Notes:
+Beware the cliffside ravens—some say they are souls of the fallen warriors, watching over the path.
+The winds grow colder as you near the summit. Dress warmly, for the island spares none.
+Clan Tuirseach’s hospitality is as fierce as their loyalty—enter with respect, and leave with your head still on your shoulders.
+May this map serve you well, and may the winds favor your journey.
+– Ibrahim Savi, Cartographer of the Continent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write really short narrative (max 5 sentances) told by Dandelion, about this: </t>
+  </si>
+  <si>
+    <t>Ah, White Orchard—a sleepy village wrapped in the scent of apple blossoms, where peace seems to linger despite the war creeping closer. It was there that Geralt, ever the reluctant hero, arrived searching for Yennefer. Instead, he found trouble—griffin attacks, whispers of Nilfgaard, and villagers caught between fear and fate. The White Wolf, though focused on his quest, couldn’t help but intervene, his blade swift and his heart—despite what he’d claim—not entirely untouched. Little did he know, his journey had only just begun.</t>
+  </si>
+  <si>
+    <t>Ah, what a moment that was! Geralt, weary from the road and soaked in griffin blood, finally caught wind of Yennefer’s whereabouts. A simple innkeeper’s whisper—just a name and a direction—but it was enough to set the White Wolf’s heart racing. Hope sparked in his tired eyes, and without a second thought, he was off, chasing fate once more. Love, after all, makes even a witcher reckless.</t>
+  </si>
+  <si>
+    <t>Ah, destiny's threads do love to tangle! While searching for the sorceress who’d quarreled with Ciri, Geralt stumbled upon none other than Keira Metz—charming, cunning, and as unpredictable as ever. She spoke of a masked mage and his mysterious hideout, where Ciri had sought refuge. Sensing a trail worth following, Geralt set off, with Keira—ever curious—insisting on joining. Together, they ventured into the unknown, guided by secrets and shadows.</t>
+  </si>
+  <si>
+    <t>Ah, Ciri and the Crones—now there’s a tale that sends shivers down my spine! The Crones of Crookback Bog took her in, their wicked minds torn between devouring the girl or selling her soul to the Wild Hunt. But Ciri, ever the clever fox, slipped through their gnarly fingers before they could make up their minds. A spectral rider gave chase through the mist-laden swamp, but the girl vanished like a wisp of fog. When Geralt arrived, all that remained were hoof prints and the lingering scent of fear.</t>
+  </si>
+  <si>
+    <t>Ah, fate’s a crafty weaver! Triss pointed Geralt toward Corinne Tilly, a gifted oneiromancer with dreams as vivid as life itself. Turns out, she saw Ciri meeting yours truly—imagine that! Geralt, of course, decided that if anyone knew where our ashen-haired fugitive had gone, it’d be me. And so, the chase led him straight to my charming, if slightly chaotic, doorstep.</t>
+  </si>
+  <si>
+    <t>Ah, Skellige—land of storms and stubborn druids! A mighty magical blast rocked the isles, and Yennefer was convinced it had Ciri’s name written all over it. Geralt joined her, naturally, but the druids weren’t exactly rolling out the welcome wagon. Stubborn as ever, Yennefer decided to cut through the red tape by appealing to a jarl for permission. After all, when magic’s afoot, diplomacy often needs a touch of force!</t>
+  </si>
+  <si>
+    <t>Ah, Skellige—where mysteries wash ashore like shipwrecked dreams! Geralt and Yennefer uncovered that Ciri had indeed returned to the isles, meeting with a masked mage of all things. The pair set sail to follow her trail, but fate’s winds had other plans. Days later, their boat drifted back to port—empty, save for a mindless wretch babbling incoherently. A chilling clue, yet another twist in the ever-elusive chase.</t>
+  </si>
+  <si>
+    <t>Ah, what a reunion that was! Geralt finally found Ciri, and together they whisked away to Kaer Morhen, that old bastion of witcher lore. But peace was short-lived—the Wild Hunt came crashing down like a winter storm. The battle was fierce, blades flashing and magic crackling, but against all odds, the defenders stood firm. Kaer Morhen held its ground, and the Wild Hunt slunk away, licking its wounds.</t>
+  </si>
+  <si>
+    <t>Now that’s a tale of silver tongues and sharp wits! Geralt, ever the master of persuasion, convinced Ge’els that Eredin—his own king—was a cold-blooded regicide. The revelation hit like a thunderclap, shaking Ge’els’ loyalty to its core. Betrayal, after all, cuts deepest when wielded by one’s own kin. And just like that, another piece of Eredin’s power crumbled to dust.</t>
+  </si>
+  <si>
+    <t>Ah, the Naglfar—Eredin’s dreaded ghost ship, cutting through worlds like a blade through silk! That wily elf Ge’els tipped Geralt off, suggesting that the key to stopping the Wild Hunt lay in the legendary Sunstone. With it, they could summon Eredin from his spectral voyage and force a final clash. Of course, finding an ancient elven artifact isn’t exactly a stroll through the woods. But when has Geralt ever shied away from a challenge?</t>
+  </si>
+  <si>
+    <t>Geralt and Regis talk for the first time from Styga Castle situation.</t>
+  </si>
+  <si>
+    <t>Geralt: "Didn't think you'd pick Toussaint of all places."
+Regis: "A place of beauty and serenity... thought I could use both. Besides, the vineyards remind me of home."
+Geralt: "Can't say I blame you. A bit odd seeing you here, though... after everything."
+Regis: "I needed time. To reflect. To grieve. To understand what... what I became at Stygga."
+Geralt: "You were yourself, Regis. Doing what needed to be done. Dettlaff... he was already lost."
+Regis: "Lost, yes. But not beyond saving. I believed... no, I wanted to believe there was still a chance. That I could reach him."
+Geralt: "Sometimes, you can't save those who don't want saving."
+Regis: "I told myself that a thousand times. Doesn’t make it any easier. I wanted to be the one who understood him... guided him. Instead, I led him to his death."
+Geralt: "Dettlaff chose his path. You did what a friend does—tried to help. But when blood's spilled... you know as well as I do, there's no going back."
+Regis: "A vampire who failed to control his instincts... and a friend who failed to stop him. A rather tragic tale, don’t you think?"
+Geralt: "Toussaint’s full of tragic tales. People around here would make a ballad out of it. 'The Lost Friend and the Last Dance.' Might even sell a few copies."
+Regis: "You jest... but I suppose you're right. Pain makes for good stories."
+Geralt: "Or good company. Either way, you’re still here. Means you’re not done just yet."
+Regis: "Perhaps. If anything, I owe it to Dettlaff... to make something of this existence."
+Geralt: "Sounds like a plan. Just... keep it quiet. Last thing I need is another riot on your account."
+Regis: "I’ll do my best. I promise."</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +1421,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -256,11 +1462,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,6 +1477,24 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -554,7 +1778,7 @@
   <dimension ref="B1:G3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,19 +1795,19 @@
   <sheetData>
     <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -594,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
@@ -603,13 +1827,16 @@
         <v>3</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
       <c r="D3" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,8 +1844,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F6BA2C-F12D-41F3-ABAC-8B20BC07BBD3}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB559D6-176B-4EE2-AD2E-00482C77A0C2}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D92F44-EA8F-44BA-B3CD-515C04F5361E}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15BC7EA8-4A51-4A13-A7BB-17F55532BF77}">
+  <sheetPr codeName="Arkusz1"/>
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DAC2AD3-A3F2-4B12-86DA-2BAEF548BE97}">
+  <sheetPr codeName="Arkusz2"/>
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EBFFB9B-2942-4BB2-85BE-94C32C798EE4}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9237EA-F370-4FAB-AAF8-0971670A2A45}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9007A50D-5721-48FC-8719-D65F6684ADA9}">
   <dimension ref="B1:G3"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -639,58 +2270,57 @@
   <sheetData>
     <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="C3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D92F44-EA8F-44BA-B3CD-515C04F5361E}">
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D70C3E-6BAD-4B59-A3ED-C4AAA2F0C5BB}">
   <dimension ref="B1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,42 +2337,1790 @@
   <sheetData>
     <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E2" s="5" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
+      <c r="C3" s="12" t="s">
+        <v>134</v>
+      </c>
       <c r="D3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50F27957-E37A-4CE2-8890-3FBEB353CC24}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B2DA9F-9A95-4494-A893-B5BEBD58A9E4}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F6BA2C-F12D-41F3-ABAC-8B20BC07BBD3}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E764FD6-F454-441C-AAFC-D4A728E02D85}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I3" sqref="H3:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D706D8-98B7-4107-B7C3-E1C553CB1340}">
+  <sheetPr codeName="Arkusz3"/>
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99D378F1-F4F7-48C4-950A-E184190840F8}">
+  <sheetPr codeName="Arkusz4"/>
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7B17B4-CDFC-4129-94A8-9EC7FBC2D087}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B32D267-4C95-4EB8-BCD4-94BEE7983BD7}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF7473B-F887-4BFD-B27A-37EC2E6714A4}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55B394C-3225-49D5-BCE1-21D30E91BCE6}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A246A86-8DC3-4705-84B7-27D90A58A910}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{603A31D1-F712-43ED-B9D4-A5343129B793}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EC4AAC-B61B-48EC-9A17-61611303979A}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3500AFF1-78B9-49FA-9560-326CABD3CAD8}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539C389D-0AA9-41B8-BDF6-EFA5B97E1DC7}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1C650B-E38C-4A4A-9CC0-12F2F98BB1C4}">
+  <sheetPr codeName="Arkusz5"/>
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A355C62-4CA2-4186-9037-C61635EDE76D}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F741F8-651C-49A0-BBDF-55BC5467BEF5}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6B6505-F633-4305-9B58-F4C75F9B4C8C}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842596AD-54E5-47DC-B979-72943D544C6B}">
+  <dimension ref="B1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="D4" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F73881-4D55-46B0-A459-597BAE8B32C3}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA84CEF-2DBC-4F5A-923E-AF587690007D}">
+  <dimension ref="B1:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="58.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="54.85546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="43.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="42" style="2" customWidth="1"/>
+    <col min="7" max="7" width="77.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="2:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3"/>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0D812EB0939BE44B372FF1F45A9F73C" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b279ff35aeca1c14d8137b0da22afbf9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="63d4114e-1bef-4718-838e-9be3cc0e7df4" xmlns:ns4="89118cec-cb09-49c5-a79b-3d4b3e9d9980" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2c90ea5fa4cf6378d877eb3f32d57d39" ns3:_="" ns4:_="">
+    <xsd:import namespace="63d4114e-1bef-4718-838e-9be3cc0e7df4"/>
+    <xsd:import namespace="89118cec-cb09-49c5-a79b-3d4b3e9d9980"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="63d4114e-1bef-4718-838e-9be3cc0e7df4" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="15" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="16" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="89118cec-cb09-49c5-a79b-3d4b3e9d9980" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="14" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A8ED665-E737-40E7-B55A-D5579DF920C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEFB7BEA-F1DC-4002-BBA4-F3BBCE3A973D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="89118cec-cb09-49c5-a79b-3d4b3e9d9980"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="63d4114e-1bef-4718-838e-9be3cc0e7df4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{53F54199-27FD-4E4A-88C4-16904FF3AA53}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="63d4114e-1bef-4718-838e-9be3cc0e7df4"/>
+    <ds:schemaRef ds:uri="89118cec-cb09-49c5-a79b-3d4b3e9d9980"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>